--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>21.42788438893329</v>
       </c>
       <c r="C2">
-        <v>15.65799201858844</v>
+        <v>15.65799201858836</v>
       </c>
       <c r="D2">
-        <v>3.068531377419572</v>
+        <v>3.068531377419706</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.9092948221656</v>
+        <v>27.90929482216552</v>
       </c>
       <c r="G2">
-        <v>21.31409349369546</v>
+        <v>21.31409349369544</v>
       </c>
       <c r="H2">
-        <v>17.50159787631978</v>
+        <v>17.50159787631976</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.18617946588616</v>
+        <v>12.18617946588613</v>
       </c>
       <c r="L2">
-        <v>17.06948690839161</v>
+        <v>17.06948690839158</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97796723784245</v>
+        <v>19.97796723784241</v>
       </c>
       <c r="C3">
-        <v>14.65939162541173</v>
+        <v>14.65939162541174</v>
       </c>
       <c r="D3">
-        <v>3.157512300520324</v>
+        <v>3.157512300520594</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.54213248597623</v>
+        <v>26.54213248597617</v>
       </c>
       <c r="G3">
         <v>20.44901197340067</v>
       </c>
       <c r="H3">
-        <v>17.14284852490793</v>
+        <v>17.14284852490799</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.53899301589226</v>
+        <v>11.5389930158922</v>
       </c>
       <c r="L3">
         <v>15.89360733897137</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.03947140815158</v>
+        <v>19.0394714081515</v>
       </c>
       <c r="C4">
-        <v>14.01511225134547</v>
+        <v>14.0151122513454</v>
       </c>
       <c r="D4">
-        <v>3.212286354695186</v>
+        <v>3.212286354695389</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.70392815379329</v>
+        <v>25.70392815379328</v>
       </c>
       <c r="G4">
-        <v>19.92860749491872</v>
+        <v>19.92860749491874</v>
       </c>
       <c r="H4">
-        <v>16.94349974537189</v>
+        <v>16.94349974537193</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.13760918735178</v>
+        <v>11.13760918735174</v>
       </c>
       <c r="L4">
-        <v>15.13519612868006</v>
+        <v>15.13519612868005</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64476903976736</v>
+        <v>18.64476903976734</v>
       </c>
       <c r="C5">
-        <v>13.74468993075502</v>
+        <v>13.74468993075511</v>
       </c>
       <c r="D5">
-        <v>3.234672342337923</v>
+        <v>3.234672342337789</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.3630297283826</v>
+        <v>25.36302972838263</v>
       </c>
       <c r="G5">
         <v>19.71941603274322</v>
       </c>
       <c r="H5">
-        <v>16.86736001192987</v>
+        <v>16.86736001192991</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>10.97318183480967</v>
       </c>
       <c r="L5">
-        <v>14.81685099808204</v>
+        <v>14.81685099808202</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,7 +567,7 @@
         <v>18.57848516292404</v>
       </c>
       <c r="C6">
-        <v>13.69931005262776</v>
+        <v>13.69931005262772</v>
       </c>
       <c r="D6">
         <v>3.238394285836426</v>
@@ -579,10 +579,10 @@
         <v>25.30647664667993</v>
       </c>
       <c r="G6">
-        <v>19.6848591444804</v>
+        <v>19.68485914448041</v>
       </c>
       <c r="H6">
-        <v>16.855019768755</v>
+        <v>16.85501976875498</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>10.94583193152239</v>
       </c>
       <c r="L6">
-        <v>14.76342560098984</v>
+        <v>14.76342560098985</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03419810575756</v>
+        <v>19.03419810575759</v>
       </c>
       <c r="C7">
-        <v>14.01149716508609</v>
+        <v>14.01149716508581</v>
       </c>
       <c r="D7">
-        <v>3.212587958266005</v>
+        <v>3.212587958266207</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.69932740659535</v>
+        <v>25.69932740659529</v>
       </c>
       <c r="G7">
-        <v>19.92577437264593</v>
+        <v>19.92577437264591</v>
       </c>
       <c r="H7">
-        <v>16.94245249158631</v>
+        <v>16.94245249158626</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.13539492116336</v>
+        <v>11.13539492116338</v>
       </c>
       <c r="L7">
-        <v>15.13094057788466</v>
+        <v>15.13094057788465</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93788539565741</v>
+        <v>20.93788539565744</v>
       </c>
       <c r="C8">
-        <v>15.32010434753138</v>
+        <v>15.32010434753132</v>
       </c>
       <c r="D8">
-        <v>3.099201932485562</v>
+        <v>3.099201932485629</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.43783721002933</v>
+        <v>27.43783721002934</v>
       </c>
       <c r="G8">
-        <v>21.01367644202603</v>
+        <v>21.01367644202605</v>
       </c>
       <c r="H8">
         <v>17.37346298314084</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.96393784324513</v>
+        <v>11.96393784324514</v>
       </c>
       <c r="L8">
         <v>16.6715203337898</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29455841931488</v>
+        <v>24.29455841931495</v>
       </c>
       <c r="C9">
-        <v>17.64218217608272</v>
+        <v>17.64218217608299</v>
       </c>
       <c r="D9">
-        <v>2.876462535432415</v>
+        <v>2.876462535432281</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.84478431222789</v>
+        <v>30.84478431222787</v>
       </c>
       <c r="G9">
-        <v>23.2263732105886</v>
+        <v>23.22637321058857</v>
       </c>
       <c r="H9">
-        <v>18.39150189380014</v>
+        <v>18.39150189380007</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.55255586788256</v>
+        <v>13.55255586788259</v>
       </c>
       <c r="L9">
-        <v>19.41012148489266</v>
+        <v>19.41012148489269</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.54088714362988</v>
+        <v>26.54088714362986</v>
       </c>
       <c r="C10">
-        <v>19.20476456368737</v>
+        <v>19.20476456368731</v>
       </c>
       <c r="D10">
-        <v>2.71025556827817</v>
+        <v>2.710255568278171</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.33647857045518</v>
+        <v>33.33647857045516</v>
       </c>
       <c r="G10">
-        <v>24.89531884039061</v>
+        <v>24.89531884039059</v>
       </c>
       <c r="H10">
         <v>19.25374567473605</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.8916433045782</v>
+        <v>14.89164330457824</v>
       </c>
       <c r="L10">
-        <v>21.25999939325009</v>
+        <v>21.25999939325011</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51746843196674</v>
+        <v>27.51746843196677</v>
       </c>
       <c r="C11">
-        <v>19.88599417402215</v>
+        <v>19.88599417402222</v>
       </c>
       <c r="D11">
-        <v>2.633495524709517</v>
+        <v>2.633495524709515</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.46725965558741</v>
+        <v>34.46725965558747</v>
       </c>
       <c r="G11">
-        <v>25.66391149434946</v>
+        <v>25.6639114943495</v>
       </c>
       <c r="H11">
-        <v>19.67276687693783</v>
+        <v>19.67276687693788</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.50768332634438</v>
+        <v>15.5076833263444</v>
       </c>
       <c r="L11">
-        <v>22.06887063151457</v>
+        <v>22.0688706315146</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88098373779161</v>
+        <v>27.88098373779155</v>
       </c>
       <c r="C12">
-        <v>20.13985133956405</v>
+        <v>20.13985133956404</v>
       </c>
       <c r="D12">
-        <v>2.60420655389238</v>
+        <v>2.604206553892311</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.8951671552346</v>
+        <v>34.89516715523445</v>
       </c>
       <c r="G12">
-        <v>25.95637934845603</v>
+        <v>25.95637934845594</v>
       </c>
       <c r="H12">
-        <v>19.83546536564955</v>
+        <v>19.83546536564948</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.7383142799521</v>
+        <v>15.73831427995207</v>
       </c>
       <c r="L12">
-        <v>22.37071133123758</v>
+        <v>22.37071133123753</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.80297047324581</v>
+        <v>27.80297047324574</v>
       </c>
       <c r="C13">
-        <v>20.08535887890611</v>
+        <v>20.0853588789062</v>
       </c>
       <c r="D13">
-        <v>2.610525279454422</v>
+        <v>2.610525279454354</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.80302017228274</v>
+        <v>34.80302017228261</v>
       </c>
       <c r="G13">
-        <v>25.8933262397025</v>
+        <v>25.89332623970244</v>
       </c>
       <c r="H13">
-        <v>19.80024335536402</v>
+        <v>19.800243355364</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.68875776153173</v>
+        <v>15.68875776153171</v>
       </c>
       <c r="L13">
-        <v>22.30589894420666</v>
+        <v>22.30589894420661</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.5474998875514</v>
+        <v>27.54749988755144</v>
       </c>
       <c r="C14">
-        <v>19.90696060652678</v>
+        <v>19.90696060652661</v>
       </c>
       <c r="D14">
-        <v>2.63109069006367</v>
+        <v>2.631090690063736</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.50246887926441</v>
+        <v>34.50246887926446</v>
       </c>
       <c r="G14">
-        <v>25.68794393163865</v>
+        <v>25.68794393163871</v>
       </c>
       <c r="H14">
-        <v>19.68607045614634</v>
+        <v>19.68607045614639</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.52670919854534</v>
+        <v>15.52670919854532</v>
       </c>
       <c r="L14">
-        <v>22.09379122470972</v>
+        <v>22.09379122470973</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.39020383657706</v>
+        <v>27.39020383657701</v>
       </c>
       <c r="C15">
-        <v>19.79715601306643</v>
+        <v>19.79715601306634</v>
       </c>
       <c r="D15">
-        <v>2.643656959256119</v>
+        <v>2.643656959256121</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>34.31833862645001</v>
       </c>
       <c r="G15">
-        <v>25.56232928720743</v>
+        <v>25.56232928720744</v>
       </c>
       <c r="H15">
-        <v>19.61666584826554</v>
+        <v>19.61666584826558</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.42711179912649</v>
+        <v>15.4271117991265</v>
       </c>
       <c r="L15">
-        <v>21.96329551874086</v>
+        <v>21.96329551874084</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47617205909272</v>
+        <v>26.47617205909266</v>
       </c>
       <c r="C16">
         <v>19.15966107013655</v>
       </c>
       <c r="D16">
-        <v>2.715244208657714</v>
+        <v>2.715244208657715</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.26253076402747</v>
+        <v>33.26253076402749</v>
       </c>
       <c r="G16">
-        <v>24.8452826941023</v>
+        <v>24.84528269410231</v>
       </c>
       <c r="H16">
-        <v>19.22691489335324</v>
+        <v>19.22691489335326</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.8509999726229</v>
+        <v>14.85099997262293</v>
       </c>
       <c r="L16">
-        <v>21.20650015337768</v>
+        <v>21.20650015337766</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90399213636365</v>
+        <v>25.90399213636356</v>
       </c>
       <c r="C17">
-        <v>18.76109564633516</v>
+        <v>18.76109564633501</v>
       </c>
       <c r="D17">
-        <v>2.758827932517653</v>
+        <v>2.758827932517719</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.61417043277954</v>
+        <v>32.61417043277952</v>
       </c>
       <c r="G17">
-        <v>24.40782914292793</v>
+        <v>24.40782914292797</v>
       </c>
       <c r="H17">
-        <v>18.99479170624352</v>
+        <v>18.99479170624362</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.49260575811401</v>
+        <v>14.49260575811399</v>
       </c>
       <c r="L17">
-        <v>20.73402676841388</v>
+        <v>20.73402676841384</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.57061269938464</v>
+        <v>25.57061269938463</v>
       </c>
       <c r="C18">
-        <v>18.52905557159512</v>
+        <v>18.52905557159498</v>
       </c>
       <c r="D18">
-        <v>2.78379146645398</v>
+        <v>2.783791466454048</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.24098467389859</v>
+        <v>32.24098467389862</v>
       </c>
       <c r="G18">
-        <v>24.15709233522455</v>
+        <v>24.15709233522457</v>
       </c>
       <c r="H18">
         <v>18.86379016620912</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.28457076505961</v>
+        <v>14.28457076505963</v>
       </c>
       <c r="L18">
         <v>20.45918418874465</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.45699537251081</v>
+        <v>25.45699537251088</v>
       </c>
       <c r="C19">
-        <v>18.4500064910618</v>
+        <v>18.45000649106181</v>
       </c>
       <c r="D19">
-        <v>2.792227311120786</v>
+        <v>2.79222731112072</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.11458343053256</v>
+        <v>32.11458343053258</v>
       </c>
       <c r="G19">
         <v>24.07234638863799</v>
       </c>
       <c r="H19">
-        <v>18.81986137616304</v>
+        <v>18.81986137616301</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.2138016661103</v>
+        <v>14.21380166611032</v>
       </c>
       <c r="L19">
-        <v>20.36559009489261</v>
+        <v>20.36559009489266</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.96534278455616</v>
+        <v>25.96534278455607</v>
       </c>
       <c r="C20">
-        <v>18.80381197578576</v>
+        <v>18.80381197578573</v>
       </c>
       <c r="D20">
-        <v>2.754199588106634</v>
+        <v>2.754199588106637</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.68321666311939</v>
+        <v>32.68321666311938</v>
       </c>
       <c r="G20">
-        <v>24.45430597978256</v>
+        <v>24.45430597978257</v>
       </c>
       <c r="H20">
-        <v>19.01924069809533</v>
+        <v>19.01924069809539</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.53095214386603</v>
+        <v>14.53095214386605</v>
       </c>
       <c r="L20">
-        <v>20.78464039640283</v>
+        <v>20.78464039640279</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62270678704131</v>
+        <v>27.62270678704134</v>
       </c>
       <c r="C21">
-        <v>19.95947076794797</v>
+        <v>19.95947076794793</v>
       </c>
       <c r="D21">
-        <v>2.625056625281417</v>
+        <v>2.62505662528128</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.59075483796218</v>
+        <v>34.59075483796234</v>
       </c>
       <c r="G21">
-        <v>25.74823030480238</v>
+        <v>25.7482303048025</v>
       </c>
       <c r="H21">
-        <v>19.71949509630368</v>
+        <v>19.71949509630378</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.57437678230453</v>
+        <v>15.5743767823045</v>
       </c>
       <c r="L21">
         <v>22.15621148645798</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66931679400022</v>
+        <v>28.66931679400017</v>
       </c>
       <c r="C22">
-        <v>20.69088969255568</v>
+        <v>20.6908896925556</v>
       </c>
       <c r="D22">
-        <v>2.53933141386321</v>
+        <v>2.539331413863207</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.87516623759196</v>
+        <v>35.87516623759187</v>
       </c>
       <c r="G22">
-        <v>26.60223497686206</v>
+        <v>26.60223497686204</v>
       </c>
       <c r="H22">
         <v>20.20070676581027</v>
@@ -1202,7 +1202,7 @@
         <v>16.24099430168895</v>
       </c>
       <c r="L22">
-        <v>23.02673737761301</v>
+        <v>23.02673737761298</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11398989634566</v>
+        <v>28.11398989634575</v>
       </c>
       <c r="C23">
-        <v>20.30264783577041</v>
+        <v>20.3026478357703</v>
       </c>
       <c r="D23">
-        <v>2.585225953902821</v>
+        <v>2.585225953902823</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>35.17140351799497</v>
       </c>
       <c r="G23">
-        <v>26.14563155682486</v>
+        <v>26.14563155682485</v>
       </c>
       <c r="H23">
-        <v>19.9416562483271</v>
+        <v>19.94165624832707</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.88652808191418</v>
+        <v>15.88652808191416</v>
       </c>
       <c r="L23">
-        <v>22.56440449097601</v>
+        <v>22.56440449097602</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93761995730452</v>
+        <v>25.93761995730441</v>
       </c>
       <c r="C24">
-        <v>18.78450896532811</v>
+        <v>18.78450896532802</v>
       </c>
       <c r="D24">
         <v>2.75629234917696</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.65200222241822</v>
+        <v>32.65200222241825</v>
       </c>
       <c r="G24">
-        <v>24.4332914356419</v>
+        <v>24.43329143564195</v>
       </c>
       <c r="H24">
-        <v>19.00817969299807</v>
+        <v>19.00817969299816</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.51362195588778</v>
+        <v>14.51362195588774</v>
       </c>
       <c r="L24">
-        <v>20.76176799506414</v>
+        <v>20.76176799506407</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.42584534227063</v>
+        <v>23.42584534227066</v>
       </c>
       <c r="C25">
-        <v>17.03964226919071</v>
+        <v>17.03964226919068</v>
       </c>
       <c r="D25">
-        <v>2.93698594779157</v>
+        <v>2.936985947791573</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>29.92471288944419</v>
       </c>
       <c r="G25">
-        <v>22.61997780988184</v>
+        <v>22.61997780988183</v>
       </c>
       <c r="H25">
-        <v>18.09665855882826</v>
+        <v>18.09665855882817</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.12709832840557</v>
+        <v>13.12709832840558</v>
       </c>
       <c r="L25">
-        <v>18.69852361235884</v>
+        <v>18.69852361235883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -415,22 +415,22 @@
         <v>21.42788438893329</v>
       </c>
       <c r="C2">
-        <v>15.65799201858836</v>
+        <v>15.65799201858844</v>
       </c>
       <c r="D2">
-        <v>3.068531377419706</v>
+        <v>3.068531377419572</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.90929482216552</v>
+        <v>27.9092948221656</v>
       </c>
       <c r="G2">
-        <v>21.31409349369544</v>
+        <v>21.31409349369546</v>
       </c>
       <c r="H2">
-        <v>17.50159787631976</v>
+        <v>17.50159787631978</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.18617946588613</v>
+        <v>12.18617946588616</v>
       </c>
       <c r="L2">
-        <v>17.06948690839158</v>
+        <v>17.06948690839161</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97796723784241</v>
+        <v>19.97796723784245</v>
       </c>
       <c r="C3">
-        <v>14.65939162541174</v>
+        <v>14.65939162541173</v>
       </c>
       <c r="D3">
-        <v>3.157512300520594</v>
+        <v>3.157512300520324</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.54213248597617</v>
+        <v>26.54213248597623</v>
       </c>
       <c r="G3">
         <v>20.44901197340067</v>
       </c>
       <c r="H3">
-        <v>17.14284852490799</v>
+        <v>17.14284852490793</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.5389930158922</v>
+        <v>11.53899301589226</v>
       </c>
       <c r="L3">
         <v>15.89360733897137</v>
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.0394714081515</v>
+        <v>19.03947140815158</v>
       </c>
       <c r="C4">
-        <v>14.0151122513454</v>
+        <v>14.01511225134547</v>
       </c>
       <c r="D4">
-        <v>3.212286354695389</v>
+        <v>3.212286354695186</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.70392815379328</v>
+        <v>25.70392815379329</v>
       </c>
       <c r="G4">
-        <v>19.92860749491874</v>
+        <v>19.92860749491872</v>
       </c>
       <c r="H4">
-        <v>16.94349974537193</v>
+        <v>16.94349974537189</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.13760918735174</v>
+        <v>11.13760918735178</v>
       </c>
       <c r="L4">
-        <v>15.13519612868005</v>
+        <v>15.13519612868006</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64476903976734</v>
+        <v>18.64476903976736</v>
       </c>
       <c r="C5">
-        <v>13.74468993075511</v>
+        <v>13.74468993075502</v>
       </c>
       <c r="D5">
-        <v>3.234672342337789</v>
+        <v>3.234672342337923</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.36302972838263</v>
+        <v>25.3630297283826</v>
       </c>
       <c r="G5">
         <v>19.71941603274322</v>
       </c>
       <c r="H5">
-        <v>16.86736001192991</v>
+        <v>16.86736001192987</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>10.97318183480967</v>
       </c>
       <c r="L5">
-        <v>14.81685099808202</v>
+        <v>14.81685099808204</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,7 +567,7 @@
         <v>18.57848516292404</v>
       </c>
       <c r="C6">
-        <v>13.69931005262772</v>
+        <v>13.69931005262776</v>
       </c>
       <c r="D6">
         <v>3.238394285836426</v>
@@ -579,10 +579,10 @@
         <v>25.30647664667993</v>
       </c>
       <c r="G6">
-        <v>19.68485914448041</v>
+        <v>19.6848591444804</v>
       </c>
       <c r="H6">
-        <v>16.85501976875498</v>
+        <v>16.855019768755</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>10.94583193152239</v>
       </c>
       <c r="L6">
-        <v>14.76342560098985</v>
+        <v>14.76342560098984</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03419810575759</v>
+        <v>19.03419810575756</v>
       </c>
       <c r="C7">
-        <v>14.01149716508581</v>
+        <v>14.01149716508609</v>
       </c>
       <c r="D7">
-        <v>3.212587958266207</v>
+        <v>3.212587958266005</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.69932740659529</v>
+        <v>25.69932740659535</v>
       </c>
       <c r="G7">
-        <v>19.92577437264591</v>
+        <v>19.92577437264593</v>
       </c>
       <c r="H7">
-        <v>16.94245249158626</v>
+        <v>16.94245249158631</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.13539492116338</v>
+        <v>11.13539492116336</v>
       </c>
       <c r="L7">
-        <v>15.13094057788465</v>
+        <v>15.13094057788466</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93788539565744</v>
+        <v>20.93788539565741</v>
       </c>
       <c r="C8">
-        <v>15.32010434753132</v>
+        <v>15.32010434753138</v>
       </c>
       <c r="D8">
-        <v>3.099201932485629</v>
+        <v>3.099201932485562</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.43783721002934</v>
+        <v>27.43783721002933</v>
       </c>
       <c r="G8">
-        <v>21.01367644202605</v>
+        <v>21.01367644202603</v>
       </c>
       <c r="H8">
         <v>17.37346298314084</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.96393784324514</v>
+        <v>11.96393784324513</v>
       </c>
       <c r="L8">
         <v>16.6715203337898</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29455841931495</v>
+        <v>24.29455841931488</v>
       </c>
       <c r="C9">
-        <v>17.64218217608299</v>
+        <v>17.64218217608272</v>
       </c>
       <c r="D9">
-        <v>2.876462535432281</v>
+        <v>2.876462535432415</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.84478431222787</v>
+        <v>30.84478431222789</v>
       </c>
       <c r="G9">
-        <v>23.22637321058857</v>
+        <v>23.2263732105886</v>
       </c>
       <c r="H9">
-        <v>18.39150189380007</v>
+        <v>18.39150189380014</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.55255586788259</v>
+        <v>13.55255586788256</v>
       </c>
       <c r="L9">
-        <v>19.41012148489269</v>
+        <v>19.41012148489266</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.54088714362986</v>
+        <v>26.54088714362988</v>
       </c>
       <c r="C10">
-        <v>19.20476456368731</v>
+        <v>19.20476456368737</v>
       </c>
       <c r="D10">
-        <v>2.710255568278171</v>
+        <v>2.71025556827817</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.33647857045516</v>
+        <v>33.33647857045518</v>
       </c>
       <c r="G10">
-        <v>24.89531884039059</v>
+        <v>24.89531884039061</v>
       </c>
       <c r="H10">
         <v>19.25374567473605</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.89164330457824</v>
+        <v>14.8916433045782</v>
       </c>
       <c r="L10">
-        <v>21.25999939325011</v>
+        <v>21.25999939325009</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51746843196677</v>
+        <v>27.51746843196674</v>
       </c>
       <c r="C11">
-        <v>19.88599417402222</v>
+        <v>19.88599417402215</v>
       </c>
       <c r="D11">
-        <v>2.633495524709515</v>
+        <v>2.633495524709517</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.46725965558747</v>
+        <v>34.46725965558741</v>
       </c>
       <c r="G11">
-        <v>25.6639114943495</v>
+        <v>25.66391149434946</v>
       </c>
       <c r="H11">
-        <v>19.67276687693788</v>
+        <v>19.67276687693783</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.5076833263444</v>
+        <v>15.50768332634438</v>
       </c>
       <c r="L11">
-        <v>22.0688706315146</v>
+        <v>22.06887063151457</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88098373779155</v>
+        <v>27.88098373779161</v>
       </c>
       <c r="C12">
-        <v>20.13985133956404</v>
+        <v>20.13985133956405</v>
       </c>
       <c r="D12">
-        <v>2.604206553892311</v>
+        <v>2.60420655389238</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.89516715523445</v>
+        <v>34.8951671552346</v>
       </c>
       <c r="G12">
-        <v>25.95637934845594</v>
+        <v>25.95637934845603</v>
       </c>
       <c r="H12">
-        <v>19.83546536564948</v>
+        <v>19.83546536564955</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.73831427995207</v>
+        <v>15.7383142799521</v>
       </c>
       <c r="L12">
-        <v>22.37071133123753</v>
+        <v>22.37071133123758</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.80297047324574</v>
+        <v>27.80297047324581</v>
       </c>
       <c r="C13">
-        <v>20.0853588789062</v>
+        <v>20.08535887890611</v>
       </c>
       <c r="D13">
-        <v>2.610525279454354</v>
+        <v>2.610525279454422</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.80302017228261</v>
+        <v>34.80302017228274</v>
       </c>
       <c r="G13">
-        <v>25.89332623970244</v>
+        <v>25.8933262397025</v>
       </c>
       <c r="H13">
-        <v>19.800243355364</v>
+        <v>19.80024335536402</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.68875776153171</v>
+        <v>15.68875776153173</v>
       </c>
       <c r="L13">
-        <v>22.30589894420661</v>
+        <v>22.30589894420666</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54749988755144</v>
+        <v>27.5474998875514</v>
       </c>
       <c r="C14">
-        <v>19.90696060652661</v>
+        <v>19.90696060652678</v>
       </c>
       <c r="D14">
-        <v>2.631090690063736</v>
+        <v>2.63109069006367</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.50246887926446</v>
+        <v>34.50246887926441</v>
       </c>
       <c r="G14">
-        <v>25.68794393163871</v>
+        <v>25.68794393163865</v>
       </c>
       <c r="H14">
-        <v>19.68607045614639</v>
+        <v>19.68607045614634</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.52670919854532</v>
+        <v>15.52670919854534</v>
       </c>
       <c r="L14">
-        <v>22.09379122470973</v>
+        <v>22.09379122470972</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.39020383657701</v>
+        <v>27.39020383657706</v>
       </c>
       <c r="C15">
-        <v>19.79715601306634</v>
+        <v>19.79715601306643</v>
       </c>
       <c r="D15">
-        <v>2.643656959256121</v>
+        <v>2.643656959256119</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>34.31833862645001</v>
       </c>
       <c r="G15">
-        <v>25.56232928720744</v>
+        <v>25.56232928720743</v>
       </c>
       <c r="H15">
-        <v>19.61666584826558</v>
+        <v>19.61666584826554</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.4271117991265</v>
+        <v>15.42711179912649</v>
       </c>
       <c r="L15">
-        <v>21.96329551874084</v>
+        <v>21.96329551874086</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47617205909266</v>
+        <v>26.47617205909272</v>
       </c>
       <c r="C16">
         <v>19.15966107013655</v>
       </c>
       <c r="D16">
-        <v>2.715244208657715</v>
+        <v>2.715244208657714</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.26253076402749</v>
+        <v>33.26253076402747</v>
       </c>
       <c r="G16">
-        <v>24.84528269410231</v>
+        <v>24.8452826941023</v>
       </c>
       <c r="H16">
-        <v>19.22691489335326</v>
+        <v>19.22691489335324</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.85099997262293</v>
+        <v>14.8509999726229</v>
       </c>
       <c r="L16">
-        <v>21.20650015337766</v>
+        <v>21.20650015337768</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90399213636356</v>
+        <v>25.90399213636365</v>
       </c>
       <c r="C17">
-        <v>18.76109564633501</v>
+        <v>18.76109564633516</v>
       </c>
       <c r="D17">
-        <v>2.758827932517719</v>
+        <v>2.758827932517653</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.61417043277952</v>
+        <v>32.61417043277954</v>
       </c>
       <c r="G17">
-        <v>24.40782914292797</v>
+        <v>24.40782914292793</v>
       </c>
       <c r="H17">
-        <v>18.99479170624362</v>
+        <v>18.99479170624352</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.49260575811399</v>
+        <v>14.49260575811401</v>
       </c>
       <c r="L17">
-        <v>20.73402676841384</v>
+        <v>20.73402676841388</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.57061269938463</v>
+        <v>25.57061269938464</v>
       </c>
       <c r="C18">
-        <v>18.52905557159498</v>
+        <v>18.52905557159512</v>
       </c>
       <c r="D18">
-        <v>2.783791466454048</v>
+        <v>2.78379146645398</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.24098467389862</v>
+        <v>32.24098467389859</v>
       </c>
       <c r="G18">
-        <v>24.15709233522457</v>
+        <v>24.15709233522455</v>
       </c>
       <c r="H18">
         <v>18.86379016620912</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.28457076505963</v>
+        <v>14.28457076505961</v>
       </c>
       <c r="L18">
         <v>20.45918418874465</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.45699537251088</v>
+        <v>25.45699537251081</v>
       </c>
       <c r="C19">
-        <v>18.45000649106181</v>
+        <v>18.4500064910618</v>
       </c>
       <c r="D19">
-        <v>2.79222731112072</v>
+        <v>2.792227311120786</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.11458343053258</v>
+        <v>32.11458343053256</v>
       </c>
       <c r="G19">
         <v>24.07234638863799</v>
       </c>
       <c r="H19">
-        <v>18.81986137616301</v>
+        <v>18.81986137616304</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.21380166611032</v>
+        <v>14.2138016661103</v>
       </c>
       <c r="L19">
-        <v>20.36559009489266</v>
+        <v>20.36559009489261</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.96534278455607</v>
+        <v>25.96534278455616</v>
       </c>
       <c r="C20">
-        <v>18.80381197578573</v>
+        <v>18.80381197578576</v>
       </c>
       <c r="D20">
-        <v>2.754199588106637</v>
+        <v>2.754199588106634</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.68321666311938</v>
+        <v>32.68321666311939</v>
       </c>
       <c r="G20">
-        <v>24.45430597978257</v>
+        <v>24.45430597978256</v>
       </c>
       <c r="H20">
-        <v>19.01924069809539</v>
+        <v>19.01924069809533</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.53095214386605</v>
+        <v>14.53095214386603</v>
       </c>
       <c r="L20">
-        <v>20.78464039640279</v>
+        <v>20.78464039640283</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62270678704134</v>
+        <v>27.62270678704131</v>
       </c>
       <c r="C21">
-        <v>19.95947076794793</v>
+        <v>19.95947076794797</v>
       </c>
       <c r="D21">
-        <v>2.62505662528128</v>
+        <v>2.625056625281417</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.59075483796234</v>
+        <v>34.59075483796218</v>
       </c>
       <c r="G21">
-        <v>25.7482303048025</v>
+        <v>25.74823030480238</v>
       </c>
       <c r="H21">
-        <v>19.71949509630378</v>
+        <v>19.71949509630368</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.5743767823045</v>
+        <v>15.57437678230453</v>
       </c>
       <c r="L21">
         <v>22.15621148645798</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66931679400017</v>
+        <v>28.66931679400022</v>
       </c>
       <c r="C22">
-        <v>20.6908896925556</v>
+        <v>20.69088969255568</v>
       </c>
       <c r="D22">
-        <v>2.539331413863207</v>
+        <v>2.53933141386321</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.87516623759187</v>
+        <v>35.87516623759196</v>
       </c>
       <c r="G22">
-        <v>26.60223497686204</v>
+        <v>26.60223497686206</v>
       </c>
       <c r="H22">
         <v>20.20070676581027</v>
@@ -1202,7 +1202,7 @@
         <v>16.24099430168895</v>
       </c>
       <c r="L22">
-        <v>23.02673737761298</v>
+        <v>23.02673737761301</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11398989634575</v>
+        <v>28.11398989634566</v>
       </c>
       <c r="C23">
-        <v>20.3026478357703</v>
+        <v>20.30264783577041</v>
       </c>
       <c r="D23">
-        <v>2.585225953902823</v>
+        <v>2.585225953902821</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>35.17140351799497</v>
       </c>
       <c r="G23">
-        <v>26.14563155682485</v>
+        <v>26.14563155682486</v>
       </c>
       <c r="H23">
-        <v>19.94165624832707</v>
+        <v>19.9416562483271</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.88652808191416</v>
+        <v>15.88652808191418</v>
       </c>
       <c r="L23">
-        <v>22.56440449097602</v>
+        <v>22.56440449097601</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93761995730441</v>
+        <v>25.93761995730452</v>
       </c>
       <c r="C24">
-        <v>18.78450896532802</v>
+        <v>18.78450896532811</v>
       </c>
       <c r="D24">
         <v>2.75629234917696</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.65200222241825</v>
+        <v>32.65200222241822</v>
       </c>
       <c r="G24">
-        <v>24.43329143564195</v>
+        <v>24.4332914356419</v>
       </c>
       <c r="H24">
-        <v>19.00817969299816</v>
+        <v>19.00817969299807</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.51362195588774</v>
+        <v>14.51362195588778</v>
       </c>
       <c r="L24">
-        <v>20.76176799506407</v>
+        <v>20.76176799506414</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.42584534227066</v>
+        <v>23.42584534227063</v>
       </c>
       <c r="C25">
-        <v>17.03964226919068</v>
+        <v>17.03964226919071</v>
       </c>
       <c r="D25">
-        <v>2.936985947791573</v>
+        <v>2.93698594779157</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1301,10 +1301,10 @@
         <v>29.92471288944419</v>
       </c>
       <c r="G25">
-        <v>22.61997780988183</v>
+        <v>22.61997780988184</v>
       </c>
       <c r="H25">
-        <v>18.09665855882817</v>
+        <v>18.09665855882826</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.12709832840558</v>
+        <v>13.12709832840557</v>
       </c>
       <c r="L25">
-        <v>18.69852361235883</v>
+        <v>18.69852361235884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.42788438893329</v>
+        <v>21.42742459148575</v>
       </c>
       <c r="C2">
-        <v>15.65799201858844</v>
+        <v>15.6543362018533</v>
       </c>
       <c r="D2">
-        <v>3.068531377419572</v>
+        <v>3.068640373827758</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.9092948221656</v>
+        <v>27.89061771807357</v>
       </c>
       <c r="G2">
-        <v>21.31409349369546</v>
+        <v>20.16860664633626</v>
       </c>
       <c r="H2">
-        <v>17.50159787631978</v>
+        <v>21.34808818498064</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.48904308058398</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.18617946588616</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>17.06948690839161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.1860565028237</v>
+      </c>
+      <c r="M2">
+        <v>17.0692855722164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.97796723784245</v>
+        <v>19.9776752173068</v>
       </c>
       <c r="C3">
-        <v>14.65939162541173</v>
+        <v>14.65618537704728</v>
       </c>
       <c r="D3">
-        <v>3.157512300520324</v>
+        <v>3.157416874692018</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.54213248597623</v>
+        <v>26.52467987340186</v>
       </c>
       <c r="G3">
-        <v>20.44901197340067</v>
+        <v>19.05109235586366</v>
       </c>
       <c r="H3">
-        <v>17.14284852490793</v>
+        <v>20.48172689038968</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>17.13130034034308</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.53899301589226</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>15.89360733897137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>11.53890931375919</v>
+      </c>
+      <c r="M3">
+        <v>15.8934826941946</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.03947140815158</v>
+        <v>19.03928181588569</v>
       </c>
       <c r="C4">
-        <v>14.01511225134547</v>
+        <v>14.01219531742943</v>
       </c>
       <c r="D4">
-        <v>3.212286354695186</v>
+        <v>3.212065006713137</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.70392815379329</v>
+        <v>25.68725246320241</v>
       </c>
       <c r="G4">
-        <v>19.92860749491872</v>
+        <v>18.36103216162926</v>
       </c>
       <c r="H4">
-        <v>16.94349974537189</v>
+        <v>19.96057590053272</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.93258192677482</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.13760918735178</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>15.13519612868006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.13755224559131</v>
+      </c>
+      <c r="M4">
+        <v>15.13511658120091</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64476903976736</v>
+        <v>18.64462123215866</v>
       </c>
       <c r="C5">
-        <v>13.74468993075502</v>
+        <v>13.741894550314</v>
       </c>
       <c r="D5">
-        <v>3.234672342337923</v>
+        <v>3.234399468086161</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.3630297283826</v>
+        <v>25.34667691534478</v>
       </c>
       <c r="G5">
-        <v>19.71941603274322</v>
+        <v>18.07913035978354</v>
       </c>
       <c r="H5">
-        <v>16.86736001192987</v>
+        <v>19.75109053164959</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.85670165125002</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.97318183480967</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>14.81685099808204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>10.97313654957951</v>
+      </c>
+      <c r="M5">
+        <v>14.81678943826712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.57848516292404</v>
+        <v>18.57834430192448</v>
       </c>
       <c r="C6">
-        <v>13.69931005262776</v>
+        <v>13.69653508646808</v>
       </c>
       <c r="D6">
-        <v>3.238394285836426</v>
+        <v>3.238112839941869</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.30647664667993</v>
+        <v>25.2901778230862</v>
       </c>
       <c r="G6">
-        <v>19.6848591444804</v>
+        <v>18.0322883625706</v>
       </c>
       <c r="H6">
-        <v>16.855019768755</v>
+        <v>19.71648547467496</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.84440463109205</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.94583193152239</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>14.76342560098984</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>10.94578862954256</v>
+      </c>
+      <c r="M6">
+        <v>14.76336700758049</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03419810575756</v>
+        <v>19.03400907658105</v>
       </c>
       <c r="C7">
-        <v>14.01149716508609</v>
+        <v>14.00858185524925</v>
       </c>
       <c r="D7">
-        <v>3.212587958266005</v>
+        <v>3.212365916375766</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.69932740659535</v>
+        <v>25.68265604516007</v>
       </c>
       <c r="G7">
-        <v>19.92577437264593</v>
+        <v>18.35723272935123</v>
       </c>
       <c r="H7">
-        <v>16.94245249158631</v>
+        <v>19.95773877226806</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.93153816238791</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>11.13539492116336</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>15.13094057788466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.1353381334589</v>
+      </c>
+      <c r="M7">
+        <v>15.13086127443039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93788539565741</v>
+        <v>20.93748368570659</v>
       </c>
       <c r="C8">
-        <v>15.32010434753138</v>
+        <v>15.31660097166431</v>
       </c>
       <c r="D8">
-        <v>3.099201932485562</v>
+        <v>3.09924045748874</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.43783721002933</v>
+        <v>27.41957712262905</v>
       </c>
       <c r="G8">
-        <v>21.01367644202603</v>
+        <v>19.78424628908053</v>
       </c>
       <c r="H8">
-        <v>17.37346298314084</v>
+        <v>21.04722197604507</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>17.36125241448234</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.96393784324513</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>16.6715203337898</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>11.96382791950556</v>
+      </c>
+      <c r="M8">
+        <v>16.67134592338059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29455841931488</v>
+        <v>24.29372613414738</v>
       </c>
       <c r="C9">
-        <v>17.64218217608272</v>
+        <v>17.63761744910886</v>
       </c>
       <c r="D9">
-        <v>2.876462535432415</v>
+        <v>2.877014679971711</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.84478431222789</v>
+        <v>30.8236030452192</v>
       </c>
       <c r="G9">
-        <v>23.2263732105886</v>
+        <v>22.54295840666213</v>
       </c>
       <c r="H9">
-        <v>18.39150189380014</v>
+        <v>23.26331208346093</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.37686741826149</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>13.55255586788256</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>19.41012148489266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>13.55235862223779</v>
+      </c>
+      <c r="M9">
+        <v>19.40973927787577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.54088714362988</v>
+        <v>26.53971715680241</v>
       </c>
       <c r="C10">
-        <v>19.20476456368737</v>
+        <v>19.19945761833306</v>
       </c>
       <c r="D10">
-        <v>2.71025556827817</v>
+        <v>2.71119664836831</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.33647857045518</v>
+        <v>33.31325483054084</v>
       </c>
       <c r="G10">
-        <v>24.89531884039061</v>
+        <v>24.53952118044506</v>
       </c>
       <c r="H10">
-        <v>19.25374567473605</v>
+        <v>24.93490555777363</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.23742435602717</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>14.8916433045782</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>21.25999939325009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.89158485372588</v>
+      </c>
+      <c r="M10">
+        <v>21.25944284532654</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51746843196674</v>
+        <v>27.51613688886002</v>
       </c>
       <c r="C11">
-        <v>19.88599417402215</v>
+        <v>19.88035354213244</v>
       </c>
       <c r="D11">
-        <v>2.633495524709517</v>
+        <v>2.634618940122855</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.46725965558741</v>
+        <v>34.44312376112889</v>
       </c>
       <c r="G11">
-        <v>25.66391149434946</v>
+        <v>25.44152200042514</v>
       </c>
       <c r="H11">
-        <v>19.67276687693783</v>
+        <v>25.70473217768501</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.65570122209764</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.50768332634438</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>22.06887063151457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15.50760964403109</v>
+      </c>
+      <c r="M11">
+        <v>22.06822773074201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.88098373779161</v>
+        <v>27.87958955758151</v>
       </c>
       <c r="C12">
-        <v>20.13985133956405</v>
+        <v>20.13408453695758</v>
       </c>
       <c r="D12">
-        <v>2.60420655389238</v>
+        <v>2.605400100730927</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.8951671552346</v>
+        <v>34.87068767700159</v>
       </c>
       <c r="G12">
-        <v>25.95637934845603</v>
+        <v>25.80131862325618</v>
       </c>
       <c r="H12">
-        <v>19.83546536564955</v>
+        <v>25.99767125780635</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.81812120966486</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.7383142799521</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>22.37071133123758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15.73823414607198</v>
+      </c>
+      <c r="M12">
+        <v>22.37003448133176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.80297047324581</v>
+        <v>27.80158985353276</v>
       </c>
       <c r="C13">
-        <v>20.08535887890611</v>
+        <v>20.07961924747416</v>
       </c>
       <c r="D13">
-        <v>2.610525279454422</v>
+        <v>2.611703668333128</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.80302017228274</v>
+        <v>34.77861462080789</v>
       </c>
       <c r="G13">
-        <v>25.8933262397025</v>
+        <v>25.72386767322851</v>
       </c>
       <c r="H13">
-        <v>19.80024335536402</v>
+        <v>25.93451649030113</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.78295903072597</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.68875776153173</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>22.30589894420666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15.68867905028656</v>
+      </c>
+      <c r="M13">
+        <v>22.30522946562901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.5474998875514</v>
+        <v>27.54616322248884</v>
       </c>
       <c r="C14">
-        <v>19.90696060652678</v>
+        <v>19.9013095930182</v>
       </c>
       <c r="D14">
-        <v>2.63109069006367</v>
+        <v>2.632219851477676</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.50246887926441</v>
+        <v>34.47830468528946</v>
       </c>
       <c r="G14">
-        <v>25.68794393163865</v>
+        <v>25.47098679284764</v>
       </c>
       <c r="H14">
-        <v>19.68607045614634</v>
+        <v>25.72880330526864</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.66898182166483</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>15.52670919854534</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>22.09379122470972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15.52663500014576</v>
+      </c>
+      <c r="M14">
+        <v>22.09314555746062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.39020383657706</v>
+        <v>27.38889389472752</v>
       </c>
       <c r="C15">
-        <v>19.79715601306643</v>
+        <v>19.7915592933065</v>
       </c>
       <c r="D15">
-        <v>2.643656959256119</v>
+        <v>2.644756119025573</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.31833862645001</v>
+        <v>34.29432248867189</v>
       </c>
       <c r="G15">
-        <v>25.56232928720743</v>
+        <v>25.32285316259285</v>
       </c>
       <c r="H15">
-        <v>19.61666584826554</v>
+        <v>25.60298649615322</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.59969751670558</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.42711179912649</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>21.96329551874086</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15.42704027087659</v>
+      </c>
+      <c r="M15">
+        <v>21.96266426621199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47617205909272</v>
+        <v>26.47501244450754</v>
       </c>
       <c r="C16">
-        <v>19.15966107013655</v>
+        <v>19.15437597994654</v>
       </c>
       <c r="D16">
-        <v>2.715244208657714</v>
+        <v>2.716173506279588</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.26253076402747</v>
+        <v>33.23936692790657</v>
       </c>
       <c r="G16">
-        <v>24.8452826941023</v>
+        <v>24.48045605940897</v>
       </c>
       <c r="H16">
-        <v>19.22691489335324</v>
+        <v>24.88478933572519</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.21064268968404</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.8509999726229</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>21.20650015337768</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.85094243049668</v>
+      </c>
+      <c r="M16">
+        <v>21.20594908779762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90399213636365</v>
+        <v>25.90292249790979</v>
       </c>
       <c r="C17">
-        <v>18.76109564633516</v>
+        <v>18.75600248461201</v>
       </c>
       <c r="D17">
-        <v>2.758827932517653</v>
+        <v>2.759654608478405</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.61417043277954</v>
+        <v>32.59153341046985</v>
       </c>
       <c r="G17">
-        <v>24.40782914292793</v>
+        <v>23.96213336780536</v>
       </c>
       <c r="H17">
-        <v>18.99479170624352</v>
+        <v>24.44663726906471</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.9789525317086</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.49260575811401</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>20.73402676841388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14.49255575078563</v>
+      </c>
+      <c r="M17">
+        <v>20.73352293511874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.57061269938464</v>
+        <v>25.56959408746275</v>
       </c>
       <c r="C18">
-        <v>18.52905557159512</v>
+        <v>18.52407319860824</v>
       </c>
       <c r="D18">
-        <v>2.78379146645398</v>
+        <v>2.78455960416112</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.24098467389859</v>
+        <v>32.21865230323159</v>
       </c>
       <c r="G18">
-        <v>24.15709233522455</v>
+        <v>23.6634079870754</v>
       </c>
       <c r="H18">
-        <v>18.86379016620912</v>
+        <v>24.19550147881165</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.84820223021412</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>14.28457076505961</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>20.45918418874465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>14.28452475487407</v>
+      </c>
+      <c r="M18">
+        <v>20.45870687547576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.45699537251081</v>
+        <v>25.4559939216933</v>
       </c>
       <c r="C19">
-        <v>18.4500064910618</v>
+        <v>18.44506170830685</v>
       </c>
       <c r="D19">
-        <v>2.792227311120786</v>
+        <v>2.792975704113286</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.11458343053256</v>
+        <v>32.09235450822568</v>
       </c>
       <c r="G19">
-        <v>24.07234638863799</v>
+        <v>23.5621593136021</v>
       </c>
       <c r="H19">
-        <v>18.81986137616304</v>
+        <v>24.11062093164886</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.80435887428752</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>14.2138016661103</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>20.36559009489261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>14.21375695566796</v>
+      </c>
+      <c r="M19">
+        <v>20.36512165631961</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.96534278455616</v>
+        <v>25.96426364522334</v>
       </c>
       <c r="C20">
-        <v>18.80381197578576</v>
+        <v>18.79869834453445</v>
       </c>
       <c r="D20">
-        <v>2.754199588106634</v>
+        <v>2.755037135898119</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.68321666311939</v>
+        <v>32.66052339461967</v>
       </c>
       <c r="G20">
-        <v>24.45430597978256</v>
+        <v>24.01737117163174</v>
       </c>
       <c r="H20">
-        <v>19.01924069809533</v>
+        <v>24.49318817810046</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.00335520127854</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>14.53095214386603</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>20.78464039640283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>14.53090137030664</v>
+      </c>
+      <c r="M20">
+        <v>20.78413160366653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62270678704131</v>
+        <v>27.62135725380654</v>
       </c>
       <c r="C21">
-        <v>19.95947076794797</v>
+        <v>19.95379372329219</v>
       </c>
       <c r="D21">
-        <v>2.625056625281417</v>
+        <v>2.626200213752437</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.59075483796218</v>
+        <v>34.56651970734477</v>
       </c>
       <c r="G21">
-        <v>25.74823030480238</v>
+        <v>25.54531199949588</v>
       </c>
       <c r="H21">
-        <v>19.71949509630368</v>
+        <v>25.78918675977642</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.70234889190964</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.57437678230453</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>22.15621148645798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>15.57430127829998</v>
+      </c>
+      <c r="M21">
+        <v>22.15555886123954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66931679400022</v>
+        <v>28.66778185329044</v>
       </c>
       <c r="C22">
-        <v>20.69088969255568</v>
+        <v>20.68484532021478</v>
       </c>
       <c r="D22">
-        <v>2.53933141386321</v>
+        <v>2.540681538380225</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.87516623759196</v>
+        <v>35.84946975487676</v>
       </c>
       <c r="G22">
-        <v>26.60223497686206</v>
+        <v>26.58991783437951</v>
       </c>
       <c r="H22">
-        <v>20.20070676581027</v>
+        <v>26.64457001420828</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.18275613555239</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.24099430168895</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>23.02673737761301</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>16.24089855502523</v>
+      </c>
+      <c r="M22">
+        <v>23.0259833263514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11398989634566</v>
+        <v>28.1125548241785</v>
       </c>
       <c r="C23">
-        <v>20.30264783577041</v>
+        <v>20.29679956736704</v>
       </c>
       <c r="D23">
-        <v>2.585225953902821</v>
+        <v>2.586465128899337</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.17140351799497</v>
+        <v>35.14670260815516</v>
       </c>
       <c r="G23">
-        <v>26.14563155682486</v>
+        <v>26.03327901294208</v>
       </c>
       <c r="H23">
-        <v>19.9416562483271</v>
+        <v>26.18722879795619</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.92413319003876</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>15.88652808191418</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>22.56440449097601</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>15.88644357134111</v>
+      </c>
+      <c r="M23">
+        <v>22.5637053414889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93761995730452</v>
+        <v>25.93654511548221</v>
       </c>
       <c r="C24">
-        <v>18.78450896532811</v>
+        <v>18.77940458693159</v>
       </c>
       <c r="D24">
-        <v>2.75629234917696</v>
+        <v>2.757124980402164</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.65200222241822</v>
+        <v>32.62933437723379</v>
       </c>
       <c r="G24">
-        <v>24.4332914356419</v>
+        <v>23.99240045717471</v>
       </c>
       <c r="H24">
-        <v>19.00817969299807</v>
+        <v>24.47214013779817</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.99231513137531</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>14.51362195588778</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>20.76176799506414</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.5135715297729</v>
+      </c>
+      <c r="M24">
+        <v>20.76126144645015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.42584534227063</v>
+        <v>23.42513227333447</v>
       </c>
       <c r="C25">
-        <v>17.03964226919071</v>
+        <v>17.03535671726702</v>
       </c>
       <c r="D25">
-        <v>2.93698594779157</v>
+        <v>2.937397944143409</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.92471288944419</v>
+        <v>29.90430218521924</v>
       </c>
       <c r="G25">
-        <v>22.61997780988184</v>
+        <v>21.80180960348521</v>
       </c>
       <c r="H25">
-        <v>18.09665855882826</v>
+        <v>22.65596991939617</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.08266457870732</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>13.12709832840557</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>18.69852361235884</v>
+        <v>13.12692352270996</v>
+      </c>
+      <c r="M25">
+        <v>18.6982007263909</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.42742459148575</v>
+        <v>21.78509529870599</v>
       </c>
       <c r="C2">
-        <v>15.6543362018533</v>
+        <v>15.05802775915301</v>
       </c>
       <c r="D2">
-        <v>3.068640373827758</v>
+        <v>6.700926715883685</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.89061771807357</v>
+        <v>35.01981838374721</v>
       </c>
       <c r="G2">
-        <v>20.16860664633626</v>
+        <v>2.080914695463259</v>
       </c>
       <c r="H2">
-        <v>21.34808818498064</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.48904308058398</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.30474641062572</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.00286767525806</v>
       </c>
       <c r="L2">
-        <v>12.1860565028237</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>17.0692855722164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>12.2828070832607</v>
+      </c>
+      <c r="O2">
+        <v>23.9924324308203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.9776752173068</v>
+        <v>20.24200906566109</v>
       </c>
       <c r="C3">
-        <v>14.65618537704728</v>
+        <v>13.98892442096466</v>
       </c>
       <c r="D3">
-        <v>3.157416874692018</v>
+        <v>6.374025742124094</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.52467987340186</v>
+        <v>33.66440134454904</v>
       </c>
       <c r="G3">
-        <v>19.05109235586366</v>
+        <v>2.090686856377978</v>
       </c>
       <c r="H3">
-        <v>20.48172689038968</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.13130034034308</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.026432604054261</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>17.65836128761665</v>
       </c>
       <c r="L3">
-        <v>11.53890931375919</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>15.8934826941946</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>12.56018243164894</v>
+      </c>
+      <c r="O3">
+        <v>23.25423998130146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.03928181588569</v>
+        <v>19.24600875308174</v>
       </c>
       <c r="C4">
-        <v>14.01219531742943</v>
+        <v>13.29831368399309</v>
       </c>
       <c r="D4">
-        <v>3.212065006713137</v>
+        <v>6.168407636158754</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.68725246320241</v>
+        <v>32.84593832450195</v>
       </c>
       <c r="G4">
-        <v>18.36103216162926</v>
+        <v>2.096825396338303</v>
       </c>
       <c r="H4">
-        <v>19.96057590053272</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.93258192677482</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.857928428683215</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.78953172727491</v>
       </c>
       <c r="L4">
-        <v>11.13755224559131</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>15.13511658120091</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>12.7332279549391</v>
+      </c>
+      <c r="O4">
+        <v>22.8182508730909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.64462123215866</v>
+        <v>18.83765232013087</v>
       </c>
       <c r="C5">
-        <v>13.741894550314</v>
+        <v>13.00816913022118</v>
       </c>
       <c r="D5">
-        <v>3.234399468086161</v>
+        <v>6.083478624109274</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.34667691534478</v>
+        <v>32.51613519319043</v>
       </c>
       <c r="G5">
-        <v>18.07913035978354</v>
+        <v>2.099363920026426</v>
       </c>
       <c r="H5">
-        <v>19.75109053164959</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.85670165125002</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.789915063531049</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.42444117187335</v>
       </c>
       <c r="L5">
-        <v>10.97313654957951</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>14.81678943826712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12.804479281012</v>
+      </c>
+      <c r="O5">
+        <v>22.64495497371405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.57834430192448</v>
+        <v>18.77359451911921</v>
       </c>
       <c r="C6">
-        <v>13.69653508646808</v>
+        <v>12.95946108843103</v>
       </c>
       <c r="D6">
-        <v>3.238112839941869</v>
+        <v>6.069310604814957</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.2901778230862</v>
+        <v>32.46160512619839</v>
       </c>
       <c r="G6">
-        <v>18.0322883625706</v>
+        <v>2.099787737585543</v>
       </c>
       <c r="H6">
-        <v>19.71648547467496</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.84440463109205</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.77866267389652</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.3631474817138</v>
       </c>
       <c r="L6">
-        <v>10.94578862954256</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>14.76336700758049</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>12.81635613471021</v>
+      </c>
+      <c r="O6">
+        <v>22.61644437677696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.03400907658105</v>
+        <v>19.24041870941662</v>
       </c>
       <c r="C7">
-        <v>14.00858185524925</v>
+        <v>13.29443613470558</v>
       </c>
       <c r="D7">
-        <v>3.212365916375766</v>
+        <v>6.167266723592598</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.68265604516007</v>
+        <v>32.84147501800008</v>
       </c>
       <c r="G7">
-        <v>18.35723272935123</v>
+        <v>2.096859479052329</v>
       </c>
       <c r="H7">
-        <v>19.95773877226806</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.93153816238791</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.857008454223943</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.78465286041866</v>
       </c>
       <c r="L7">
-        <v>11.1353381334589</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>15.13086127443039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>12.73418584467106</v>
+      </c>
+      <c r="O7">
+        <v>22.81589599464211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.93748368570659</v>
+        <v>21.26303127952985</v>
       </c>
       <c r="C8">
-        <v>15.31660097166431</v>
+        <v>14.69641896267348</v>
       </c>
       <c r="D8">
-        <v>3.09924045748874</v>
+        <v>6.58927894672323</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.41957712262905</v>
+        <v>34.54975992778478</v>
       </c>
       <c r="G8">
-        <v>19.78424628908053</v>
+        <v>2.084256802309548</v>
       </c>
       <c r="H8">
-        <v>21.04722197604507</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.36125241448234</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.208320069221053</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>18.54817627450667</v>
       </c>
       <c r="L8">
-        <v>11.96382791950556</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>16.67134592338059</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>12.37790659350893</v>
+      </c>
+      <c r="O8">
+        <v>23.73433865956639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.29372613414738</v>
+        <v>24.85096244640122</v>
       </c>
       <c r="C9">
-        <v>17.63761744910886</v>
+        <v>17.18043393405246</v>
       </c>
       <c r="D9">
-        <v>2.877014679971711</v>
+        <v>7.374771834579585</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.8236030452192</v>
+        <v>37.99975991994909</v>
       </c>
       <c r="G9">
-        <v>22.54295840666213</v>
+        <v>2.060531204542564</v>
       </c>
       <c r="H9">
-        <v>23.26331208346093</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.37686741826149</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.914185317670869</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>21.67007347264036</v>
       </c>
       <c r="L9">
-        <v>13.55235862223779</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>19.40973927787577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>11.6987607550989</v>
+      </c>
+      <c r="O9">
+        <v>25.67147946496411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.53971715680241</v>
+        <v>27.26715784288451</v>
       </c>
       <c r="C10">
-        <v>19.19945761833306</v>
+        <v>18.85270952613889</v>
       </c>
       <c r="D10">
-        <v>2.71119664836831</v>
+        <v>7.923211539670612</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.31325483054084</v>
+        <v>40.58784416015909</v>
       </c>
       <c r="G10">
-        <v>24.53952118044506</v>
+        <v>2.043532516727784</v>
       </c>
       <c r="H10">
-        <v>24.93490555777363</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.23742435602717</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.441348743603703</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.76950990832803</v>
       </c>
       <c r="L10">
-        <v>14.89158485372588</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>21.25944284532654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>11.20847466082419</v>
+      </c>
+      <c r="O10">
+        <v>27.17804006390342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51613688886002</v>
+        <v>28.32141536329537</v>
       </c>
       <c r="C11">
-        <v>19.88035354213244</v>
+        <v>19.58253741186926</v>
       </c>
       <c r="D11">
-        <v>2.634618940122855</v>
+        <v>8.166188755932893</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.44312376112889</v>
+        <v>41.77676675901657</v>
       </c>
       <c r="G11">
-        <v>25.44152200042514</v>
+        <v>2.035850123130366</v>
       </c>
       <c r="H11">
-        <v>25.70473217768501</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.65570122209764</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.682941343779818</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.68509248635792</v>
       </c>
       <c r="L11">
-        <v>15.50760964403109</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>22.06822773074201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>10.98657102867876</v>
+      </c>
+      <c r="O11">
+        <v>27.88224009461072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.87958955758151</v>
+        <v>28.71444696790048</v>
       </c>
       <c r="C12">
-        <v>20.13408453695758</v>
+        <v>19.85466858583049</v>
       </c>
       <c r="D12">
-        <v>2.605400100730927</v>
+        <v>8.257257150699221</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>34.87068767700159</v>
+        <v>42.22875943387086</v>
       </c>
       <c r="G12">
-        <v>25.80131862325618</v>
+        <v>2.032944147807643</v>
       </c>
       <c r="H12">
-        <v>25.99767125780635</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.81812120966486</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.77469695094106</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.02637187124625</v>
       </c>
       <c r="L12">
-        <v>15.73823414607198</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>22.37003448133176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>10.90264063910842</v>
+      </c>
+      <c r="O12">
+        <v>28.15173072912351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.80158985353276</v>
+        <v>28.63007150640538</v>
       </c>
       <c r="C13">
-        <v>20.07961924747416</v>
+        <v>19.79624528758085</v>
       </c>
       <c r="D13">
-        <v>2.611703668333128</v>
+        <v>8.237685755707277</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>34.77861462080789</v>
+        <v>42.13133304939631</v>
       </c>
       <c r="G13">
-        <v>25.72386767322851</v>
+        <v>2.033569930366053</v>
       </c>
       <c r="H13">
-        <v>25.93451649030113</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.78295903072597</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.75492332484122</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>24.95310868634019</v>
       </c>
       <c r="L13">
-        <v>15.68867905028656</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>22.30522946562901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>10.9207131365073</v>
+      </c>
+      <c r="O13">
+        <v>28.09356303065236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54616322248884</v>
+        <v>28.35387281413569</v>
       </c>
       <c r="C14">
-        <v>19.9013095930182</v>
+        <v>19.60500950639279</v>
       </c>
       <c r="D14">
-        <v>2.632219851477676</v>
+        <v>8.173699860409485</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.47830468528946</v>
+        <v>41.81391594845896</v>
       </c>
       <c r="G14">
-        <v>25.47098679284764</v>
+        <v>2.03561100815734</v>
       </c>
       <c r="H14">
-        <v>25.72880330526864</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.66898182166483</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.69048458229573</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.71327712588407</v>
       </c>
       <c r="L14">
-        <v>15.52663500014576</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>22.09314555746062</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>10.97966439352406</v>
+      </c>
+      <c r="O14">
+        <v>27.90435377705744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.38889389472752</v>
+        <v>28.18389494206404</v>
       </c>
       <c r="C15">
-        <v>19.7915592933065</v>
+        <v>19.48732650813658</v>
       </c>
       <c r="D15">
-        <v>2.644756119025573</v>
+        <v>8.134384096254879</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.29432248867189</v>
+        <v>41.61972468161823</v>
       </c>
       <c r="G15">
-        <v>25.32285316259285</v>
+        <v>2.036861512102947</v>
       </c>
       <c r="H15">
-        <v>25.60298649615322</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.59969751670558</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.651049840615478</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.56567362822074</v>
       </c>
       <c r="L15">
-        <v>15.42704027087659</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>21.96266426621199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>11.01578482694517</v>
+      </c>
+      <c r="O15">
+        <v>27.78882991064426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.47501244450754</v>
+        <v>27.19737810754899</v>
       </c>
       <c r="C16">
-        <v>19.15437597994654</v>
+        <v>18.80440875836439</v>
       </c>
       <c r="D16">
-        <v>2.716173506279588</v>
+        <v>7.907200570810359</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.23936692790657</v>
+        <v>40.51038533773372</v>
       </c>
       <c r="G16">
-        <v>24.48045605940897</v>
+        <v>2.044035256946623</v>
       </c>
       <c r="H16">
-        <v>24.88478933572519</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.21064268968404</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.425596690525779</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>23.70890052828172</v>
       </c>
       <c r="L16">
-        <v>14.85094243049668</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>21.20594908779762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>11.22299400310208</v>
+      </c>
+      <c r="O16">
+        <v>27.13240688600693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.90292249790979</v>
+        <v>26.58086275402369</v>
       </c>
       <c r="C17">
-        <v>18.75600248461201</v>
+        <v>18.37768543521498</v>
       </c>
       <c r="D17">
-        <v>2.759654608478405</v>
+        <v>7.766154485911065</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.59153341046985</v>
+        <v>39.83285471026578</v>
       </c>
       <c r="G17">
-        <v>23.96213336780536</v>
+        <v>2.048446284221907</v>
       </c>
       <c r="H17">
-        <v>24.44663726906471</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.9789525317086</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.287748809443228</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.17335568640572</v>
       </c>
       <c r="L17">
-        <v>14.49255575078563</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>20.73352293511874</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>11.3503555390457</v>
+      </c>
+      <c r="O17">
+        <v>26.73460670862539</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.56959408746275</v>
+        <v>26.22201753138826</v>
       </c>
       <c r="C18">
-        <v>18.52407319860824</v>
+        <v>18.12932366228815</v>
       </c>
       <c r="D18">
-        <v>2.78455960416112</v>
+        <v>7.68441505019928</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.21865230323159</v>
+        <v>39.44423564045725</v>
       </c>
       <c r="G18">
-        <v>23.6634079870754</v>
+        <v>2.050988404681649</v>
       </c>
       <c r="H18">
-        <v>24.19550147881165</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.84820223021412</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.208628313146944</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>22.86159420966392</v>
       </c>
       <c r="L18">
-        <v>14.28452475487407</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>20.45870687547576</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>11.42372079043424</v>
+      </c>
+      <c r="O18">
+        <v>26.50756778178964</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.4559939216933</v>
+        <v>26.09978270165714</v>
       </c>
       <c r="C19">
-        <v>18.44506170830685</v>
+        <v>18.04472494382335</v>
       </c>
       <c r="D19">
-        <v>2.792975704113286</v>
+        <v>7.656634538157363</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.09235450822568</v>
+        <v>39.31283952886863</v>
       </c>
       <c r="G19">
-        <v>23.5621593136021</v>
+        <v>2.051850100133724</v>
       </c>
       <c r="H19">
-        <v>24.11062093164886</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.80435887428752</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.181867876390706</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>22.75538947334908</v>
       </c>
       <c r="L19">
-        <v>14.21375695566796</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>20.36512165631961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>11.44858182034183</v>
+      </c>
+      <c r="O19">
+        <v>26.43099688982089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.96426364522334</v>
+        <v>26.64692909377078</v>
       </c>
       <c r="C20">
-        <v>18.79869834453445</v>
+        <v>18.42341184784561</v>
       </c>
       <c r="D20">
-        <v>2.755037135898119</v>
+        <v>7.781232661599681</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.66052339461967</v>
+        <v>39.90486691448477</v>
       </c>
       <c r="G20">
-        <v>24.01737117163174</v>
+        <v>2.047976231763114</v>
       </c>
       <c r="H20">
-        <v>24.49318817810046</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.00335520127854</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.302405739356145</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.2307497389912</v>
       </c>
       <c r="L20">
-        <v>14.53090137030664</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>20.78413160366653</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>11.33678672238527</v>
+      </c>
+      <c r="O20">
+        <v>26.77676987368806</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62135725380654</v>
+        <v>28.43516489723526</v>
       </c>
       <c r="C21">
-        <v>19.95379372329219</v>
+        <v>19.66129338736896</v>
       </c>
       <c r="D21">
-        <v>2.626200213752437</v>
+        <v>8.192519597946902</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.56651970734477</v>
+        <v>41.90709955337928</v>
       </c>
       <c r="G21">
-        <v>25.54531199949588</v>
+        <v>2.035011442755289</v>
       </c>
       <c r="H21">
-        <v>25.78918675977642</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.70234889190964</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.709404281037601</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>24.78386682358508</v>
       </c>
       <c r="L21">
-        <v>15.57430127829998</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>22.15555886123954</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>10.96234678466266</v>
+      </c>
+      <c r="O21">
+        <v>27.95985125885161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.66778185329044</v>
+        <v>29.56792876074742</v>
       </c>
       <c r="C22">
-        <v>20.68484532021478</v>
+        <v>20.4457257420991</v>
       </c>
       <c r="D22">
-        <v>2.540681538380225</v>
+        <v>8.455838066003842</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.84946975487676</v>
+        <v>43.22613644942555</v>
       </c>
       <c r="G22">
-        <v>26.58991783437951</v>
+        <v>2.026554471637388</v>
       </c>
       <c r="H22">
-        <v>26.64457001420828</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.18275613555239</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.976993922588111</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.76738992801927</v>
       </c>
       <c r="L22">
-        <v>16.24089855502523</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>23.0259833263514</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>10.71817940108405</v>
+      </c>
+      <c r="O22">
+        <v>28.74962649531676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.1125548241785</v>
+        <v>28.96654611466241</v>
       </c>
       <c r="C23">
-        <v>20.29679956736704</v>
+        <v>20.02923611055824</v>
       </c>
       <c r="D23">
-        <v>2.586465128899337</v>
+        <v>8.315799469422181</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.14670260815516</v>
+        <v>42.52112189253426</v>
       </c>
       <c r="G23">
-        <v>26.03327901294208</v>
+        <v>2.031068108317893</v>
       </c>
       <c r="H23">
-        <v>26.18722879795619</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.92413319003876</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.834021070214776</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.24526276326652</v>
       </c>
       <c r="L23">
-        <v>15.88644357134111</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>22.5637053414889</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>10.8484669502114</v>
+      </c>
+      <c r="O23">
+        <v>28.32654049012964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.93654511548221</v>
+        <v>26.61707423318294</v>
       </c>
       <c r="C24">
-        <v>18.77940458693159</v>
+        <v>18.40274839848626</v>
       </c>
       <c r="D24">
-        <v>2.757124980402164</v>
+        <v>7.774417842868711</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.62933437723379</v>
+        <v>39.87230739317008</v>
       </c>
       <c r="G24">
-        <v>23.99240045717471</v>
+        <v>2.048188722985833</v>
       </c>
       <c r="H24">
-        <v>24.47214013779817</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.99231513137531</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.295778936891846</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.20481395879444</v>
       </c>
       <c r="L24">
-        <v>14.5135715297729</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>20.76126144645015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>11.34292073299312</v>
+      </c>
+      <c r="O24">
+        <v>26.75770273877601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.42513227333447</v>
+        <v>23.91980665800261</v>
       </c>
       <c r="C25">
-        <v>17.03535671726702</v>
+        <v>16.53596155851429</v>
       </c>
       <c r="D25">
-        <v>2.937397944143409</v>
+        <v>7.167154128680514</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.90430218521924</v>
+        <v>37.05677337291614</v>
       </c>
       <c r="G25">
-        <v>21.80180960348521</v>
+        <v>2.066860292937117</v>
       </c>
       <c r="H25">
-        <v>22.65596991939617</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.08266457870732</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.721644719461937</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.86046364055951</v>
       </c>
       <c r="L25">
-        <v>13.12692352270996</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>18.6982007263909</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>11.88072040291671</v>
+      </c>
+      <c r="O25">
+        <v>25.13291391630524</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.78509529870599</v>
+        <v>13.96105186571</v>
       </c>
       <c r="C2">
-        <v>15.05802775915301</v>
+        <v>8.028966305522706</v>
       </c>
       <c r="D2">
-        <v>6.700926715883685</v>
+        <v>10.49137765260916</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.01981838374721</v>
+        <v>21.08531451475158</v>
       </c>
       <c r="G2">
-        <v>2.080914695463259</v>
+        <v>20.42543079300283</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>8.63343160607841</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.30474641062572</v>
+        <v>8.302433567440964</v>
       </c>
       <c r="K2">
-        <v>19.00286767525806</v>
+        <v>12.47356106428219</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.2828070832607</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>23.9924324308203</v>
+        <v>13.79075233611067</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.24200906566109</v>
+        <v>13.07665936677643</v>
       </c>
       <c r="C3">
-        <v>13.98892442096466</v>
+        <v>7.698055588523012</v>
       </c>
       <c r="D3">
-        <v>6.374025742124094</v>
+        <v>9.922756187432226</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.66440134454904</v>
+        <v>20.81723926743783</v>
       </c>
       <c r="G3">
-        <v>2.090686856377978</v>
+        <v>20.38669694934218</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8.738597196879232</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.026432604054261</v>
+        <v>8.027692326302537</v>
       </c>
       <c r="K3">
-        <v>17.65836128761665</v>
+        <v>11.79393142794976</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.56018243164894</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>23.25423998130146</v>
+        <v>13.91693122559071</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.24600875308174</v>
+        <v>12.50233112032995</v>
       </c>
       <c r="C4">
-        <v>13.29831368399309</v>
+        <v>7.487631665301461</v>
       </c>
       <c r="D4">
-        <v>6.168407636158754</v>
+        <v>9.560970044299893</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.84593832450195</v>
+        <v>20.67187361335597</v>
       </c>
       <c r="G4">
-        <v>2.096825396338303</v>
+        <v>20.3922770965222</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>8.808549966074715</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.857928428683215</v>
+        <v>7.859394387838925</v>
       </c>
       <c r="K4">
-        <v>16.78953172727491</v>
+        <v>11.35573015180086</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.7332279549391</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>22.8182508730909</v>
+        <v>14.0073168402385</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.83765232013087</v>
+        <v>12.26041437611253</v>
       </c>
       <c r="C5">
-        <v>13.00816913022118</v>
+        <v>7.40014648987743</v>
       </c>
       <c r="D5">
-        <v>6.083478624109274</v>
+        <v>9.41051612099853</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.51613519319043</v>
+        <v>20.61739520277513</v>
       </c>
       <c r="G5">
-        <v>2.099363920026426</v>
+        <v>20.40160123910869</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.838364817879532</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.789915063531049</v>
+        <v>7.791005375812111</v>
       </c>
       <c r="K5">
-        <v>16.42444117187335</v>
+        <v>11.17198417314282</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.804479281012</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>22.64495497371405</v>
+        <v>14.04724737969884</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.77359451911921</v>
+        <v>12.21976893413441</v>
       </c>
       <c r="C6">
-        <v>12.95946108843103</v>
+        <v>7.385517556980085</v>
       </c>
       <c r="D6">
-        <v>6.069310604814957</v>
+        <v>9.385356005191165</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.46160512619839</v>
+        <v>20.60863397750864</v>
       </c>
       <c r="G6">
-        <v>2.099787737585543</v>
+        <v>20.4035653297291</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>8.843393344882443</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.77866267389652</v>
+        <v>7.779664010062755</v>
       </c>
       <c r="K6">
-        <v>16.3631474817138</v>
+        <v>11.1411635136083</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.81635613471021</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>22.61644437677696</v>
+        <v>14.05406067738547</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.24041870941662</v>
+        <v>12.49910041914218</v>
       </c>
       <c r="C7">
-        <v>13.29443613470558</v>
+        <v>7.486458715218832</v>
       </c>
       <c r="D7">
-        <v>6.167266723592598</v>
+        <v>9.558952978972826</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.84147501800008</v>
+        <v>20.67111974226056</v>
       </c>
       <c r="G7">
-        <v>2.096859479052329</v>
+        <v>20.39237474906777</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>8.808946817778892</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.857008454223943</v>
+        <v>7.858471155937903</v>
       </c>
       <c r="K7">
-        <v>16.78465286041866</v>
+        <v>11.35327292111913</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.73418584467106</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>22.81589599464211</v>
+        <v>14.00784300713867</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.26303127952985</v>
+        <v>13.66260771411306</v>
       </c>
       <c r="C8">
-        <v>14.69641896267348</v>
+        <v>7.916419307906302</v>
       </c>
       <c r="D8">
-        <v>6.58927894672323</v>
+        <v>10.298027827513</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>34.54975992778478</v>
+        <v>20.98884880118824</v>
       </c>
       <c r="G8">
-        <v>2.084256802309548</v>
+        <v>20.40578506217736</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>8.668548154096021</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.208320069221053</v>
+        <v>8.20767581609479</v>
       </c>
       <c r="K8">
-        <v>18.54817627450667</v>
+        <v>12.24360641613524</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.37790659350893</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>23.73433865956639</v>
+        <v>13.83148745310859</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.85096244640122</v>
+        <v>15.69635926180935</v>
       </c>
       <c r="C9">
-        <v>17.18043393405246</v>
+        <v>8.698939497722916</v>
       </c>
       <c r="D9">
-        <v>7.374771834579585</v>
+        <v>11.64152907338128</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.99975991994909</v>
+        <v>21.76717131007085</v>
       </c>
       <c r="G9">
-        <v>2.060531204542564</v>
+        <v>20.6790701610768</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>8.438093212470978</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.914185317670869</v>
+        <v>8.891786230121578</v>
       </c>
       <c r="K9">
-        <v>21.67007347264036</v>
+        <v>13.82107480047099</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.6987607550989</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>25.67147946496411</v>
+        <v>13.59509797336522</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.26715784288451</v>
+        <v>17.04073357878254</v>
       </c>
       <c r="C10">
-        <v>18.85270952613889</v>
+        <v>9.233442105826043</v>
       </c>
       <c r="D10">
-        <v>7.923211539670612</v>
+        <v>12.55859007204473</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>40.58784416015909</v>
+        <v>22.43624490658015</v>
       </c>
       <c r="G10">
-        <v>2.043532516727784</v>
+        <v>21.04793132586752</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>8.299410959902378</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.441348743603703</v>
+        <v>9.389473345733578</v>
       </c>
       <c r="K10">
-        <v>23.76950990832803</v>
+        <v>14.87502228124643</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.20847466082419</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>27.17804006390342</v>
+        <v>13.49819303871439</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.32141536329537</v>
+        <v>17.62019072502026</v>
       </c>
       <c r="C11">
-        <v>19.58253741186926</v>
+        <v>9.467292396288169</v>
       </c>
       <c r="D11">
-        <v>8.166188755932893</v>
+        <v>12.95985409744948</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>41.77676675901657</v>
+        <v>22.76202971327831</v>
       </c>
       <c r="G11">
-        <v>2.035850123130366</v>
+        <v>21.25543606729335</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>8.243776430003015</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.682941343779818</v>
+        <v>9.614039095227531</v>
       </c>
       <c r="K11">
-        <v>24.68509248635792</v>
+        <v>15.33146570544291</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.98657102867876</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>27.88224009461072</v>
+        <v>13.47306147166754</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.71444696790048</v>
+        <v>17.83503685144309</v>
       </c>
       <c r="C12">
-        <v>19.85466858583049</v>
+        <v>9.55447492974457</v>
       </c>
       <c r="D12">
-        <v>8.257257150699221</v>
+        <v>13.10947599985453</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>42.22875943387086</v>
+        <v>22.88848470642752</v>
       </c>
       <c r="G12">
-        <v>2.032944147807643</v>
+        <v>21.3399444346191</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>8.223854617963482</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.77469695094106</v>
+        <v>9.698760322977167</v>
       </c>
       <c r="K12">
-        <v>25.02637187124625</v>
+        <v>15.50099546279904</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.90264063910842</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>28.15173072912351</v>
+        <v>13.46646503148268</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.63007150640538</v>
+        <v>17.78896906685688</v>
       </c>
       <c r="C13">
-        <v>19.79624528758085</v>
+        <v>9.535760079467593</v>
       </c>
       <c r="D13">
-        <v>8.237685755707277</v>
+        <v>13.07735626854595</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>42.13133304939631</v>
+        <v>22.86111300333534</v>
       </c>
       <c r="G13">
-        <v>2.033569930366053</v>
+        <v>21.32147707988059</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>8.228092935602181</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.75492332484122</v>
+        <v>9.680528930369551</v>
       </c>
       <c r="K13">
-        <v>24.95310868634019</v>
+        <v>15.46463168323793</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.9207131365073</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>28.09356303065236</v>
+        <v>13.46775265819745</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.35387281413569</v>
+        <v>17.6379578547602</v>
       </c>
       <c r="C14">
-        <v>19.60500950639279</v>
+        <v>9.474492613810405</v>
       </c>
       <c r="D14">
-        <v>8.173699860409485</v>
+        <v>12.97221041619379</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>41.81391594845896</v>
+        <v>22.77237134828917</v>
       </c>
       <c r="G14">
-        <v>2.03561100815734</v>
+        <v>21.26226860279614</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>8.242114042236096</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.69048458229573</v>
+        <v>9.621015783761203</v>
       </c>
       <c r="K14">
-        <v>24.71327712588407</v>
+        <v>15.34547948075548</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.97966439352406</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>27.90435377705744</v>
+        <v>13.47245911776946</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.18389494206404</v>
+        <v>17.54486355996866</v>
       </c>
       <c r="C15">
-        <v>19.48732650813658</v>
+        <v>9.43678501610632</v>
       </c>
       <c r="D15">
-        <v>8.134384096254879</v>
+        <v>12.90750142726648</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>41.61972468161823</v>
+        <v>22.71841668803982</v>
       </c>
       <c r="G15">
-        <v>2.036861512102947</v>
+        <v>21.2267801015942</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>8.25085388761166</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.651049840615478</v>
+        <v>9.584519574808761</v>
       </c>
       <c r="K15">
-        <v>24.56567362822074</v>
+        <v>15.27206346514531</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.01578482694517</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>27.78882991064426</v>
+        <v>13.47572813958225</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.19737810754899</v>
+        <v>17.00222154641808</v>
       </c>
       <c r="C16">
-        <v>18.80440875836439</v>
+        <v>9.217969224644005</v>
       </c>
       <c r="D16">
-        <v>7.907200570810359</v>
+        <v>12.53204257820168</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>40.51038533773372</v>
+        <v>22.41538590175731</v>
       </c>
       <c r="G16">
-        <v>2.044035256946623</v>
+        <v>21.03518900794926</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>8.303202975584584</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.425596690525779</v>
+        <v>9.374755766932813</v>
       </c>
       <c r="K16">
-        <v>23.70890052828172</v>
+        <v>14.84472889693634</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.22299400310208</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>27.13240688600693</v>
+        <v>13.50023337621657</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.58086275402369</v>
+        <v>16.661128860798</v>
       </c>
       <c r="C17">
-        <v>18.37768543521498</v>
+        <v>9.081324497761322</v>
       </c>
       <c r="D17">
-        <v>7.766154485911065</v>
+        <v>12.29760207688819</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>39.83285471026578</v>
+        <v>22.23497992252141</v>
       </c>
       <c r="G17">
-        <v>2.048446284221907</v>
+        <v>20.92799108289382</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>8.337277151108939</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.287748809443228</v>
+        <v>9.24556172009437</v>
       </c>
       <c r="K17">
-        <v>23.17335568640572</v>
+        <v>14.57667311940862</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.3503555390457</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>26.73460670862539</v>
+        <v>13.52025782703668</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.22201753138826</v>
+        <v>16.46191708023117</v>
       </c>
       <c r="C18">
-        <v>18.12932366228815</v>
+        <v>9.001856482081747</v>
       </c>
       <c r="D18">
-        <v>7.68441505019928</v>
+        <v>12.16126178421231</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>39.44423564045725</v>
+        <v>22.13323143737768</v>
       </c>
       <c r="G18">
-        <v>2.050988404681649</v>
+        <v>20.87005988515154</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.357572418697416</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.208628313146944</v>
+        <v>9.171082609273874</v>
       </c>
       <c r="K18">
-        <v>22.86159420966392</v>
+        <v>14.4203292652344</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.42372079043424</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>26.50756778178964</v>
+        <v>13.53354712924343</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.09978270165714</v>
+        <v>16.39394697045413</v>
       </c>
       <c r="C19">
-        <v>18.04472494382335</v>
+        <v>8.974801114813626</v>
       </c>
       <c r="D19">
-        <v>7.656634538157363</v>
+        <v>12.11484377708015</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>39.31283952886863</v>
+        <v>22.09912710624637</v>
       </c>
       <c r="G19">
-        <v>2.051850100133724</v>
+        <v>20.85107812604518</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.36456154423928</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.181867876390706</v>
+        <v>9.145837821724694</v>
       </c>
       <c r="K19">
-        <v>22.75538947334908</v>
+        <v>14.36702241856236</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.44858182034183</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>26.43099688982089</v>
+        <v>13.53834508544181</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.64692909377078</v>
+        <v>16.69775152118446</v>
       </c>
       <c r="C20">
-        <v>18.42341184784561</v>
+        <v>9.095961248585413</v>
       </c>
       <c r="D20">
-        <v>7.781232661599681</v>
+        <v>12.32271386884385</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>39.90486691448477</v>
+        <v>22.2539756974155</v>
       </c>
       <c r="G20">
-        <v>2.047976231763114</v>
+        <v>20.93901513867138</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>8.333577272699197</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.302405739356145</v>
+        <v>9.259332668390259</v>
       </c>
       <c r="K20">
-        <v>23.2307497389912</v>
+        <v>14.60543229462278</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.33678672238527</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>26.77676987368806</v>
+        <v>13.51794141846359</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.43516489723526</v>
+        <v>17.68243755582592</v>
       </c>
       <c r="C21">
-        <v>19.66129338736896</v>
+        <v>9.492525813731875</v>
       </c>
       <c r="D21">
-        <v>8.192519597946902</v>
+        <v>13.00315773074295</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>41.90709955337928</v>
+        <v>22.79835310836883</v>
       </c>
       <c r="G21">
-        <v>2.035011442755289</v>
+        <v>21.27949699861636</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>8.237963987757981</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.709404281037601</v>
+        <v>9.638505215007761</v>
       </c>
       <c r="K21">
-        <v>24.78386682358508</v>
+        <v>15.38056737004619</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.96234678466266</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>27.95985125885161</v>
+        <v>13.47099588311617</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.56792876074742</v>
+        <v>18.29930006185442</v>
       </c>
       <c r="C22">
-        <v>20.4457257420991</v>
+        <v>9.743698652866925</v>
       </c>
       <c r="D22">
-        <v>8.455838066003842</v>
+        <v>13.43428881930076</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>43.22613644942555</v>
+        <v>23.17213006333318</v>
       </c>
       <c r="G22">
-        <v>2.026554471637388</v>
+        <v>21.53667179849362</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8.182192249502366</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.976993922588111</v>
+        <v>9.884451163261881</v>
       </c>
       <c r="K22">
-        <v>25.76738992801927</v>
+        <v>15.86784022803659</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.71817940108405</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>28.74962649531676</v>
+        <v>13.45742947909373</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.96654611466241</v>
+        <v>17.97249817648075</v>
       </c>
       <c r="C23">
-        <v>20.02923611055824</v>
+        <v>9.61038495019973</v>
       </c>
       <c r="D23">
-        <v>8.315799469422181</v>
+        <v>13.20543793999129</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>42.52112189253426</v>
+        <v>22.97099090236367</v>
       </c>
       <c r="G23">
-        <v>2.031068108317893</v>
+        <v>21.39617721161801</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>8.211318050395903</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.834021070214776</v>
+        <v>9.753370906099908</v>
       </c>
       <c r="K23">
-        <v>25.24526276326652</v>
+        <v>15.60954191822993</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.8484669502114</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>28.32654049012964</v>
+        <v>13.46303857172482</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.61707423318294</v>
+        <v>16.68120411549061</v>
       </c>
       <c r="C24">
-        <v>18.40274839848626</v>
+        <v>9.089346802612736</v>
       </c>
       <c r="D24">
-        <v>7.774417842868711</v>
+        <v>12.31136567522698</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>39.87230739317008</v>
+        <v>22.24538157420593</v>
       </c>
       <c r="G24">
-        <v>2.048188722985833</v>
+        <v>20.93401966073132</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.335247795569993</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.295778936891846</v>
+        <v>9.253107453100679</v>
       </c>
       <c r="K24">
-        <v>23.20481395879444</v>
+        <v>14.59243723240599</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.34292073299312</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>26.75770273877601</v>
+        <v>13.51898314663035</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.91980665800261</v>
+        <v>15.17260365416041</v>
       </c>
       <c r="C25">
-        <v>16.53596155851429</v>
+        <v>8.494133566437574</v>
       </c>
       <c r="D25">
-        <v>7.167154128680514</v>
+        <v>11.29006027819775</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.05677337291614</v>
+        <v>21.53967157566467</v>
       </c>
       <c r="G25">
-        <v>2.066860292937117</v>
+        <v>20.5767980674148</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>8.495312585961871</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.721644719461937</v>
+        <v>8.707287686748737</v>
       </c>
       <c r="K25">
-        <v>20.86046364055951</v>
+        <v>13.41265688443027</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.88072040291671</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>25.13291391630524</v>
+        <v>13.64631807882364</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96105186571</v>
+        <v>9.840987230004494</v>
       </c>
       <c r="C2">
-        <v>8.028966305522706</v>
+        <v>5.729659689673432</v>
       </c>
       <c r="D2">
-        <v>10.49137765260916</v>
+        <v>11.36463759379619</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.08531451475158</v>
+        <v>30.49735656803559</v>
       </c>
       <c r="G2">
-        <v>20.42543079300283</v>
+        <v>29.12426151942907</v>
       </c>
       <c r="H2">
-        <v>8.63343160607841</v>
+        <v>14.50101402468481</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.302433567440964</v>
+        <v>11.33628273765753</v>
       </c>
       <c r="K2">
-        <v>12.47356106428219</v>
+        <v>9.043114136576346</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.79075233611067</v>
+        <v>22.09889004117581</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.07665936677643</v>
+        <v>9.497542760162728</v>
       </c>
       <c r="C3">
-        <v>7.698055588523012</v>
+        <v>5.572449205096732</v>
       </c>
       <c r="D3">
-        <v>9.922756187432226</v>
+        <v>11.24997164847366</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.81723926743783</v>
+        <v>30.56731808119301</v>
       </c>
       <c r="G3">
-        <v>20.38669694934218</v>
+        <v>29.25942796862955</v>
       </c>
       <c r="H3">
-        <v>8.738597196879232</v>
+        <v>14.55689495268934</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.027692326302537</v>
+        <v>11.31648402814513</v>
       </c>
       <c r="K3">
-        <v>11.79393142794976</v>
+        <v>8.79086285541695</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.91693122559071</v>
+        <v>22.19740179909536</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50233112032995</v>
+        <v>9.281111312286463</v>
       </c>
       <c r="C4">
-        <v>7.487631665301461</v>
+        <v>5.47323659175004</v>
       </c>
       <c r="D4">
-        <v>9.560970044299893</v>
+        <v>11.18119194356215</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.67187361335597</v>
+        <v>30.61814805911763</v>
       </c>
       <c r="G4">
-        <v>20.3922770965222</v>
+        <v>29.35197911113168</v>
       </c>
       <c r="H4">
-        <v>8.808549966074715</v>
+        <v>14.59351951457315</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.859394387838925</v>
+        <v>11.30656942361234</v>
       </c>
       <c r="K4">
-        <v>11.35573015180086</v>
+        <v>8.63285690076532</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.0073168402385</v>
+        <v>22.2626542117766</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.26041437611253</v>
+        <v>9.19164737421068</v>
       </c>
       <c r="C5">
-        <v>7.40014648987743</v>
+        <v>5.432176589371004</v>
       </c>
       <c r="D5">
-        <v>9.41051612099853</v>
+        <v>11.15360112595712</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.61739520277513</v>
+        <v>30.6408363375228</v>
       </c>
       <c r="G5">
-        <v>20.40160123910869</v>
+        <v>29.39208608819856</v>
       </c>
       <c r="H5">
-        <v>8.838364817879532</v>
+        <v>14.60902631938137</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.791005375812111</v>
+        <v>11.30309585856376</v>
       </c>
       <c r="K5">
-        <v>11.17198417314282</v>
+        <v>8.567772188076326</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.04724737969884</v>
+        <v>22.29044178879144</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.21976893413441</v>
+        <v>9.17671952743674</v>
       </c>
       <c r="C6">
-        <v>7.385517556980085</v>
+        <v>5.425321934781343</v>
       </c>
       <c r="D6">
-        <v>9.385356005191165</v>
+        <v>11.149046935773</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.60863397750864</v>
+        <v>30.64472281110752</v>
       </c>
       <c r="G6">
-        <v>20.4035653297291</v>
+        <v>29.39888991623224</v>
       </c>
       <c r="H6">
-        <v>8.843393344882443</v>
+        <v>14.61163637183759</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.779664010062755</v>
+        <v>11.30255338220758</v>
       </c>
       <c r="K6">
-        <v>11.1411635136083</v>
+        <v>8.556925606253161</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.05406067738547</v>
+        <v>22.29512812223449</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.49910041914218</v>
+        <v>9.27990971623298</v>
       </c>
       <c r="C7">
-        <v>7.486458715218832</v>
+        <v>5.472685331319568</v>
       </c>
       <c r="D7">
-        <v>9.558952978972826</v>
+        <v>11.18081803556224</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.67111974226056</v>
+        <v>30.61844605314283</v>
       </c>
       <c r="G7">
-        <v>20.39237474906777</v>
+        <v>29.35251034018491</v>
       </c>
       <c r="H7">
-        <v>8.808946817778892</v>
+        <v>14.59372628792092</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.858471155937903</v>
+        <v>11.30652027968439</v>
       </c>
       <c r="K7">
-        <v>11.35327292111913</v>
+        <v>8.6319818414708</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.00784300713867</v>
+        <v>22.26302412166736</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.66260771411306</v>
+        <v>9.723795038085905</v>
       </c>
       <c r="C8">
-        <v>7.916419307906302</v>
+        <v>5.676036722922609</v>
       </c>
       <c r="D8">
-        <v>10.298027827513</v>
+        <v>11.32478082528106</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.98884880118824</v>
+        <v>30.51984224819379</v>
       </c>
       <c r="G8">
-        <v>20.40578506217736</v>
+        <v>29.1688760043293</v>
       </c>
       <c r="H8">
-        <v>8.668548154096021</v>
+        <v>14.51980177039843</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.20767581609479</v>
+        <v>11.3289927572695</v>
       </c>
       <c r="K8">
-        <v>12.24360641613524</v>
+        <v>8.956837684432275</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.83148745310859</v>
+        <v>22.13186672707338</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69635926180935</v>
+        <v>10.5450629351983</v>
       </c>
       <c r="C9">
-        <v>8.698939497722916</v>
+        <v>6.051697541207584</v>
       </c>
       <c r="D9">
-        <v>11.64152907338128</v>
+        <v>11.61869485934874</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.76717131007085</v>
+        <v>30.38915983501574</v>
       </c>
       <c r="G9">
-        <v>20.6790701610768</v>
+        <v>28.8851289286194</v>
       </c>
       <c r="H9">
-        <v>8.438093212470978</v>
+        <v>14.39318018858559</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.891786230121578</v>
+        <v>11.39070005472781</v>
       </c>
       <c r="K9">
-        <v>13.82107480047099</v>
+        <v>9.56548898962904</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.59509797336522</v>
+        <v>21.91255828814751</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.04073357878254</v>
+        <v>11.11245244262921</v>
       </c>
       <c r="C10">
-        <v>9.233442105826043</v>
+        <v>6.311421914654656</v>
       </c>
       <c r="D10">
-        <v>12.55859007204473</v>
+        <v>11.83993636351362</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.43624490658015</v>
+        <v>30.33160846461652</v>
       </c>
       <c r="G10">
-        <v>21.04793132586752</v>
+        <v>28.72389591632655</v>
       </c>
       <c r="H10">
-        <v>8.299410959902378</v>
+        <v>14.31131773269755</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.389473345733578</v>
+        <v>11.44656220997649</v>
       </c>
       <c r="K10">
-        <v>14.87502228124643</v>
+        <v>9.990958232495764</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.49819303871439</v>
+        <v>21.77463612920275</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.62019072502026</v>
+        <v>11.36171092750149</v>
       </c>
       <c r="C11">
-        <v>9.467292396288169</v>
+        <v>6.425647116763502</v>
       </c>
       <c r="D11">
-        <v>12.95985409744948</v>
+        <v>11.94135451118835</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.76202971327831</v>
+        <v>30.31381866473346</v>
       </c>
       <c r="G11">
-        <v>21.25543606729335</v>
+        <v>28.66094216241467</v>
       </c>
       <c r="H11">
-        <v>8.243776430003015</v>
+        <v>14.27649788495714</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.614039095227531</v>
+        <v>11.47420336801226</v>
       </c>
       <c r="K11">
-        <v>15.33146570544291</v>
+        <v>10.17899649106185</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.47306147166754</v>
+        <v>21.71695306833856</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.83503685144309</v>
+        <v>11.45475256768624</v>
       </c>
       <c r="C12">
-        <v>9.55447492974457</v>
+        <v>6.468307930459352</v>
       </c>
       <c r="D12">
-        <v>13.10947599985453</v>
+        <v>11.97983827843622</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.88848470642752</v>
+        <v>30.30829081808279</v>
       </c>
       <c r="G12">
-        <v>21.3399444346191</v>
+        <v>28.63860826234678</v>
       </c>
       <c r="H12">
-        <v>8.223854617963482</v>
+        <v>14.26366032691151</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.698760322977167</v>
+        <v>11.4849853281963</v>
       </c>
       <c r="K12">
-        <v>15.50099546279904</v>
+        <v>10.24935043860299</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.46646503148268</v>
+        <v>21.69583939278024</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.78896906685688</v>
+        <v>11.43477538882773</v>
       </c>
       <c r="C13">
-        <v>9.535760079467593</v>
+        <v>6.459147007133362</v>
       </c>
       <c r="D13">
-        <v>13.07735626854595</v>
+        <v>11.97154711393263</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.86111300333534</v>
+        <v>30.30942755130877</v>
       </c>
       <c r="G13">
-        <v>21.32147707988059</v>
+        <v>28.64335114874508</v>
       </c>
       <c r="H13">
-        <v>8.228092935602181</v>
+        <v>14.26640964880789</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.680528930369551</v>
+        <v>11.48264933212765</v>
       </c>
       <c r="K13">
-        <v>15.46463168323793</v>
+        <v>10.2342372422635</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.46775265819745</v>
+        <v>21.70035411331987</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.6379578547602</v>
+        <v>11.36939291195395</v>
       </c>
       <c r="C14">
-        <v>9.474492613810405</v>
+        <v>6.429168906087599</v>
       </c>
       <c r="D14">
-        <v>12.97221041619379</v>
+        <v>11.94451919698417</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.77237134828917</v>
+        <v>30.3133396499889</v>
       </c>
       <c r="G14">
-        <v>21.26226860279614</v>
+        <v>28.65907450919026</v>
       </c>
       <c r="H14">
-        <v>8.242114042236096</v>
+        <v>14.27543475757841</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.621015783761203</v>
+        <v>11.47508413035465</v>
       </c>
       <c r="K14">
-        <v>15.34547948075548</v>
+        <v>10.18480195073238</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.47245911776946</v>
+        <v>21.71520139737479</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.54486355996866</v>
+        <v>11.32916676607343</v>
       </c>
       <c r="C15">
-        <v>9.43678501610632</v>
+        <v>6.41072830168051</v>
       </c>
       <c r="D15">
-        <v>12.90750142726648</v>
+        <v>11.9279731371109</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.71841668803982</v>
+        <v>30.31589339319336</v>
       </c>
       <c r="G15">
-        <v>21.2267801015942</v>
+        <v>28.66890187522228</v>
       </c>
       <c r="H15">
-        <v>8.25085388761166</v>
+        <v>14.28100821259951</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.584519574808761</v>
+        <v>11.47049105279057</v>
       </c>
       <c r="K15">
-        <v>15.27206346514531</v>
+        <v>10.15440877031044</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.47572813958225</v>
+        <v>21.72439087627915</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.00222154641808</v>
+        <v>11.09597814654317</v>
       </c>
       <c r="C16">
-        <v>9.217969224644005</v>
+        <v>6.303875470735937</v>
       </c>
       <c r="D16">
-        <v>12.53204257820168</v>
+        <v>11.83332125187613</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.41538590175731</v>
+        <v>30.33294011548232</v>
       </c>
       <c r="G16">
-        <v>21.03518900794926</v>
+        <v>28.72822015446085</v>
       </c>
       <c r="H16">
-        <v>8.303202975584584</v>
+        <v>14.31364198356876</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.374755766932813</v>
+        <v>11.44480017442227</v>
       </c>
       <c r="K16">
-        <v>14.84472889693634</v>
+        <v>9.978553376057461</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.50023337621657</v>
+        <v>21.77850783358522</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.661128860798</v>
+        <v>10.95060177976748</v>
       </c>
       <c r="C17">
-        <v>9.081324497761322</v>
+        <v>6.237297622201798</v>
       </c>
       <c r="D17">
-        <v>12.29760207688819</v>
+        <v>11.77543055166407</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.23497992252141</v>
+        <v>30.34554856271795</v>
       </c>
       <c r="G17">
-        <v>20.92799108289382</v>
+        <v>28.76727959446471</v>
       </c>
       <c r="H17">
-        <v>8.337277151108939</v>
+        <v>14.33428150568202</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.24556172009437</v>
+        <v>11.42960667753961</v>
       </c>
       <c r="K17">
-        <v>14.57667311940862</v>
+        <v>9.869216197534874</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.52025782703668</v>
+        <v>21.81300401642876</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.46191708023117</v>
+        <v>10.86615597963914</v>
       </c>
       <c r="C18">
-        <v>9.001856482081747</v>
+        <v>6.19863595587884</v>
       </c>
       <c r="D18">
-        <v>12.16126178421231</v>
+        <v>11.74220816036059</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.13323143737768</v>
+        <v>30.35359028533679</v>
       </c>
       <c r="G18">
-        <v>20.87005988515154</v>
+        <v>28.79072306641901</v>
       </c>
       <c r="H18">
-        <v>8.357572418697416</v>
+        <v>14.34638057418202</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.171082609273874</v>
+        <v>11.42107796948186</v>
       </c>
       <c r="K18">
-        <v>14.4203292652344</v>
+        <v>9.805812922159438</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.53354712924343</v>
+        <v>21.83332129539836</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39394697045413</v>
+        <v>10.83742409961794</v>
       </c>
       <c r="C19">
-        <v>8.974801114813626</v>
+        <v>6.185483546935934</v>
       </c>
       <c r="D19">
-        <v>12.11484377708015</v>
+        <v>11.7309734699218</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.09912710624637</v>
+        <v>30.35644862320099</v>
       </c>
       <c r="G19">
-        <v>20.85107812604518</v>
+        <v>28.79882816969398</v>
       </c>
       <c r="H19">
-        <v>8.36456154423928</v>
+        <v>14.35051622945565</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.145837821724694</v>
+        <v>11.41822656254859</v>
       </c>
       <c r="K19">
-        <v>14.36702241856236</v>
+        <v>9.784259055525881</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.53834508544181</v>
+        <v>21.84028205974187</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.69775152118446</v>
+        <v>10.96616372663613</v>
       </c>
       <c r="C20">
-        <v>9.095961248585413</v>
+        <v>6.244423241335943</v>
       </c>
       <c r="D20">
-        <v>12.32271386884385</v>
+        <v>11.78158560886643</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.2539756974155</v>
+        <v>30.34412462504903</v>
       </c>
       <c r="G20">
-        <v>20.93901513867138</v>
+        <v>28.76302040010761</v>
       </c>
       <c r="H20">
-        <v>8.333577272699197</v>
+        <v>14.33206082093967</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.259332668390259</v>
+        <v>11.43120233736603</v>
       </c>
       <c r="K20">
-        <v>14.60543229462278</v>
+        <v>9.880909122539231</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.51794141846359</v>
+        <v>21.80928255970866</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.68243755582592</v>
+        <v>11.38863443941172</v>
       </c>
       <c r="C21">
-        <v>9.492525813731875</v>
+        <v>6.437990536226773</v>
       </c>
       <c r="D21">
-        <v>13.00315773074295</v>
+        <v>11.95245606657579</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.79835310836883</v>
+        <v>30.31215775230349</v>
       </c>
       <c r="G21">
-        <v>21.27949699861636</v>
+        <v>28.65441523831035</v>
       </c>
       <c r="H21">
-        <v>8.237963987757981</v>
+        <v>14.27277442066693</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.638505215007761</v>
+        <v>11.47729771594691</v>
       </c>
       <c r="K21">
-        <v>15.38056737004619</v>
+        <v>10.19934586611161</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.47099588311617</v>
+        <v>21.71082056970791</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.29930006185442</v>
+        <v>11.65686310983796</v>
       </c>
       <c r="C22">
-        <v>9.743698652866925</v>
+        <v>6.561025281175621</v>
       </c>
       <c r="D22">
-        <v>13.43428881930076</v>
+        <v>12.06457496888811</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.17213006333318</v>
+        <v>30.29831166060227</v>
       </c>
       <c r="G22">
-        <v>21.53667179849362</v>
+        <v>28.59221435489446</v>
       </c>
       <c r="H22">
-        <v>8.182192249502366</v>
+        <v>14.23605553642933</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.884451163261881</v>
+        <v>11.50925598517819</v>
       </c>
       <c r="K22">
-        <v>15.86784022803659</v>
+        <v>10.40247256982101</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.45742947909373</v>
+        <v>21.6507239649054</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.97249817648075</v>
+        <v>11.5144477438416</v>
       </c>
       <c r="C23">
-        <v>9.61038495019973</v>
+        <v>6.495686037678572</v>
       </c>
       <c r="D23">
-        <v>13.20543793999129</v>
+        <v>12.0047048959332</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.97099090236367</v>
+        <v>30.30505632219224</v>
       </c>
       <c r="G23">
-        <v>21.39617721161801</v>
+        <v>28.62460538355543</v>
       </c>
       <c r="H23">
-        <v>8.211318050395903</v>
+        <v>14.25546751036216</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.753370906099908</v>
+        <v>11.49203359151003</v>
       </c>
       <c r="K23">
-        <v>15.60954191822993</v>
+        <v>10.29453486670986</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.46303857172482</v>
+        <v>21.68240866588832</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.68120411549061</v>
+        <v>10.95913086518272</v>
       </c>
       <c r="C24">
-        <v>9.089346802612736</v>
+        <v>6.241202946411961</v>
       </c>
       <c r="D24">
-        <v>12.31136567522698</v>
+        <v>11.77880271894053</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.24538157420593</v>
+        <v>30.34476591742337</v>
       </c>
       <c r="G24">
-        <v>20.93401966073132</v>
+        <v>28.76494290614207</v>
       </c>
       <c r="H24">
-        <v>8.335247795569993</v>
+        <v>14.33306406630826</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.253107453100679</v>
+        <v>11.43048029673335</v>
       </c>
       <c r="K24">
-        <v>14.59243723240599</v>
+        <v>9.875624440594544</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.51898314663035</v>
+        <v>21.81096351981383</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.17260365416041</v>
+        <v>10.32881930346308</v>
       </c>
       <c r="C25">
-        <v>8.494133566437574</v>
+        <v>5.952783931796669</v>
       </c>
       <c r="D25">
-        <v>11.29006027819775</v>
+        <v>11.53812258712521</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.53967157566467</v>
+        <v>30.41777429167761</v>
       </c>
       <c r="G25">
-        <v>20.5767980674148</v>
+        <v>28.9536429365049</v>
       </c>
       <c r="H25">
-        <v>8.495312585961871</v>
+        <v>14.42547260869095</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.707287686748737</v>
+        <v>11.37213991790844</v>
       </c>
       <c r="K25">
-        <v>13.41265688443027</v>
+        <v>9.40435069489944</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.64631807882364</v>
+        <v>21.96781983487079</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.840987230004494</v>
+        <v>13.96105186571001</v>
       </c>
       <c r="C2">
-        <v>5.729659689673432</v>
+        <v>8.028966305522815</v>
       </c>
       <c r="D2">
-        <v>11.36463759379619</v>
+        <v>10.49137765260919</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>30.49735656803559</v>
+        <v>21.08531451475142</v>
       </c>
       <c r="G2">
-        <v>29.12426151942907</v>
+        <v>20.42543079300255</v>
       </c>
       <c r="H2">
-        <v>14.50101402468481</v>
+        <v>8.633431606078352</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.33628273765753</v>
+        <v>8.302433567440918</v>
       </c>
       <c r="K2">
-        <v>9.043114136576346</v>
+        <v>12.47356106428226</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.09889004117581</v>
+        <v>13.79075233611051</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.497542760162728</v>
+        <v>13.07665936677643</v>
       </c>
       <c r="C3">
-        <v>5.572449205096732</v>
+        <v>7.698055588522998</v>
       </c>
       <c r="D3">
-        <v>11.24997164847366</v>
+        <v>9.922756187432251</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>30.56731808119301</v>
+        <v>20.817239267438</v>
       </c>
       <c r="G3">
-        <v>29.25942796862955</v>
+        <v>20.38669694934238</v>
       </c>
       <c r="H3">
-        <v>14.55689495268934</v>
+        <v>8.738597196879297</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.31648402814513</v>
+        <v>8.027692326302574</v>
       </c>
       <c r="K3">
-        <v>8.79086285541695</v>
+        <v>11.79393142794977</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.19740179909536</v>
+        <v>13.91693122559087</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.281111312286463</v>
+        <v>12.50233112032992</v>
       </c>
       <c r="C4">
-        <v>5.47323659175004</v>
+        <v>7.487631665301397</v>
       </c>
       <c r="D4">
-        <v>11.18119194356215</v>
+        <v>9.560970044299909</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>30.61814805911763</v>
+        <v>20.671873613356</v>
       </c>
       <c r="G4">
-        <v>29.35197911113168</v>
+        <v>20.39227709652227</v>
       </c>
       <c r="H4">
-        <v>14.59351951457315</v>
+        <v>8.808549966074711</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.30656942361234</v>
+        <v>7.859394387838921</v>
       </c>
       <c r="K4">
-        <v>8.63285690076532</v>
+        <v>11.35573015180083</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.2626542117766</v>
+        <v>14.00731684023854</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.19164737421068</v>
+        <v>12.26041437611253</v>
       </c>
       <c r="C5">
-        <v>5.432176589371004</v>
+        <v>7.400146489877622</v>
       </c>
       <c r="D5">
-        <v>11.15360112595712</v>
+        <v>9.410516120998501</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>30.6408363375228</v>
+        <v>20.61739520277517</v>
       </c>
       <c r="G5">
-        <v>29.39208608819856</v>
+        <v>20.40160123910879</v>
       </c>
       <c r="H5">
-        <v>14.60902631938137</v>
+        <v>8.838364817879592</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.30309585856376</v>
+        <v>7.791005375812183</v>
       </c>
       <c r="K5">
-        <v>8.567772188076326</v>
+        <v>11.17198417314285</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.29044178879144</v>
+        <v>14.04724737969893</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.17671952743674</v>
+        <v>12.21976893413446</v>
       </c>
       <c r="C6">
-        <v>5.425321934781343</v>
+        <v>7.385517556980097</v>
       </c>
       <c r="D6">
-        <v>11.149046935773</v>
+        <v>9.38535600519123</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>30.64472281110752</v>
+        <v>20.60863397750872</v>
       </c>
       <c r="G6">
-        <v>29.39888991623224</v>
+        <v>20.40356532972914</v>
       </c>
       <c r="H6">
-        <v>14.61163637183759</v>
+        <v>8.843393344882454</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.30255338220758</v>
+        <v>7.779664010062727</v>
       </c>
       <c r="K6">
-        <v>8.556925606253161</v>
+        <v>11.14116351360833</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.29512812223449</v>
+        <v>14.05406067738549</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.27990971623298</v>
+        <v>12.49910041914219</v>
       </c>
       <c r="C7">
-        <v>5.472685331319568</v>
+        <v>7.486458715218933</v>
       </c>
       <c r="D7">
-        <v>11.18081803556224</v>
+        <v>9.558952978972748</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>30.61844605314283</v>
+        <v>20.67111974226037</v>
       </c>
       <c r="G7">
-        <v>29.35251034018491</v>
+        <v>20.39237474906751</v>
       </c>
       <c r="H7">
-        <v>14.59372628792092</v>
+        <v>8.808946817778951</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.30652027968439</v>
+        <v>7.858471155937943</v>
       </c>
       <c r="K7">
-        <v>8.6319818414708</v>
+        <v>11.35327292111917</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.26302412166736</v>
+        <v>14.00784300713856</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.723795038085905</v>
+        <v>13.662607714113</v>
       </c>
       <c r="C8">
-        <v>5.676036722922609</v>
+        <v>7.916419307906425</v>
       </c>
       <c r="D8">
-        <v>11.32478082528106</v>
+        <v>10.29802782751293</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>30.51984224819379</v>
+        <v>20.98884880118815</v>
       </c>
       <c r="G8">
-        <v>29.1688760043293</v>
+        <v>20.40578506217735</v>
       </c>
       <c r="H8">
-        <v>14.51980177039843</v>
+        <v>8.668548154096026</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.3289927572695</v>
+        <v>8.207675816094845</v>
       </c>
       <c r="K8">
-        <v>8.956837684432275</v>
+        <v>12.24360641613525</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.13186672707338</v>
+        <v>13.83148745310859</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.5450629351983</v>
+        <v>15.69635926180944</v>
       </c>
       <c r="C9">
-        <v>6.051697541207584</v>
+        <v>8.698939497722822</v>
       </c>
       <c r="D9">
-        <v>11.61869485934874</v>
+        <v>11.64152907338126</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.38915983501574</v>
+        <v>21.76717131007071</v>
       </c>
       <c r="G9">
-        <v>28.8851289286194</v>
+        <v>20.67907016107654</v>
       </c>
       <c r="H9">
-        <v>14.39318018858559</v>
+        <v>8.43809321247091</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.39070005472781</v>
+        <v>8.891786230121573</v>
       </c>
       <c r="K9">
-        <v>9.56548898962904</v>
+        <v>13.82107480047108</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.91255828814751</v>
+        <v>13.59509797336505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.11245244262921</v>
+        <v>17.04073357878254</v>
       </c>
       <c r="C10">
-        <v>6.311421914654656</v>
+        <v>9.233442105825985</v>
       </c>
       <c r="D10">
-        <v>11.83993636351362</v>
+        <v>12.55859007204471</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>30.33160846461652</v>
+        <v>22.43624490658016</v>
       </c>
       <c r="G10">
-        <v>28.72389591632655</v>
+        <v>21.04793132586759</v>
       </c>
       <c r="H10">
-        <v>14.31131773269755</v>
+        <v>8.29941095990238</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.44656220997649</v>
+        <v>9.389473345733588</v>
       </c>
       <c r="K10">
-        <v>9.990958232495764</v>
+        <v>14.87502228124638</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.77463612920275</v>
+        <v>13.49819303871441</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.36171092750149</v>
+        <v>17.62019072502027</v>
       </c>
       <c r="C11">
-        <v>6.425647116763502</v>
+        <v>9.467292396288242</v>
       </c>
       <c r="D11">
-        <v>11.94135451118835</v>
+        <v>12.95985409744946</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>30.31381866473346</v>
+        <v>22.76202971327835</v>
       </c>
       <c r="G11">
-        <v>28.66094216241467</v>
+        <v>21.2554360672934</v>
       </c>
       <c r="H11">
-        <v>14.27649788495714</v>
+        <v>8.243776430003015</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.47420336801226</v>
+        <v>9.614039095227541</v>
       </c>
       <c r="K11">
-        <v>10.17899649106185</v>
+        <v>15.33146570544293</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.71695306833856</v>
+        <v>13.47306147166756</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.45475256768624</v>
+        <v>17.8350368514431</v>
       </c>
       <c r="C12">
-        <v>6.468307930459352</v>
+        <v>9.554474929744641</v>
       </c>
       <c r="D12">
-        <v>11.97983827843622</v>
+        <v>13.10947599985454</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>30.30829081808279</v>
+        <v>22.88848470642751</v>
       </c>
       <c r="G12">
-        <v>28.63860826234678</v>
+        <v>21.33994443461899</v>
       </c>
       <c r="H12">
-        <v>14.26366032691151</v>
+        <v>8.223854617963484</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.4849853281963</v>
+        <v>9.698760322977149</v>
       </c>
       <c r="K12">
-        <v>10.24935043860299</v>
+        <v>15.50099546279904</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.69583939278024</v>
+        <v>13.46646503148267</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.43477538882773</v>
+        <v>17.78896906685682</v>
       </c>
       <c r="C13">
-        <v>6.459147007133362</v>
+        <v>9.53576007946765</v>
       </c>
       <c r="D13">
-        <v>11.97154711393263</v>
+        <v>13.07735626854591</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>30.30942755130877</v>
+        <v>22.86111300333547</v>
       </c>
       <c r="G13">
-        <v>28.64335114874508</v>
+        <v>21.32147707988078</v>
       </c>
       <c r="H13">
-        <v>14.26640964880789</v>
+        <v>8.228092935602255</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.48264933212765</v>
+        <v>9.680528930369531</v>
       </c>
       <c r="K13">
-        <v>10.2342372422635</v>
+        <v>15.46463168323791</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.70035411331987</v>
+        <v>13.4677526581976</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.36939291195395</v>
+        <v>17.63795785476026</v>
       </c>
       <c r="C14">
-        <v>6.429168906087599</v>
+        <v>9.474492613810405</v>
       </c>
       <c r="D14">
-        <v>11.94451919698417</v>
+        <v>12.97221041619377</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>30.3133396499889</v>
+        <v>22.77237134828905</v>
       </c>
       <c r="G14">
-        <v>28.65907450919026</v>
+        <v>21.262268602796</v>
       </c>
       <c r="H14">
-        <v>14.27543475757841</v>
+        <v>8.242114042235995</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.47508413035465</v>
+        <v>9.621015783761198</v>
       </c>
       <c r="K14">
-        <v>10.18480195073238</v>
+        <v>15.34547948075551</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.71520139737479</v>
+        <v>13.47245911776935</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.32916676607343</v>
+        <v>17.54486355996861</v>
       </c>
       <c r="C15">
-        <v>6.41072830168051</v>
+        <v>9.43678501610645</v>
       </c>
       <c r="D15">
-        <v>11.9279731371109</v>
+        <v>12.90750142726644</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>30.31589339319336</v>
+        <v>22.7184166880398</v>
       </c>
       <c r="G15">
-        <v>28.66890187522228</v>
+        <v>21.22678010159425</v>
       </c>
       <c r="H15">
-        <v>14.28100821259951</v>
+        <v>8.250853887611669</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.47049105279057</v>
+        <v>9.584519574808786</v>
       </c>
       <c r="K15">
-        <v>10.15440877031044</v>
+        <v>15.27206346514529</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.72439087627915</v>
+        <v>13.47572813958227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.09597814654317</v>
+        <v>17.0022215464181</v>
       </c>
       <c r="C16">
-        <v>6.303875470735937</v>
+        <v>9.217969224643857</v>
       </c>
       <c r="D16">
-        <v>11.83332125187613</v>
+        <v>12.53204257820167</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>30.33294011548232</v>
+        <v>22.41538590175727</v>
       </c>
       <c r="G16">
-        <v>28.72822015446085</v>
+        <v>21.03518900794928</v>
       </c>
       <c r="H16">
-        <v>14.31364198356876</v>
+        <v>8.303202975584528</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.44480017442227</v>
+        <v>9.374755766932783</v>
       </c>
       <c r="K16">
-        <v>9.978553376057461</v>
+        <v>14.84472889693635</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.77850783358522</v>
+        <v>13.50023337621653</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.95060177976748</v>
+        <v>16.661128860798</v>
       </c>
       <c r="C17">
-        <v>6.237297622201798</v>
+        <v>9.081324497761322</v>
       </c>
       <c r="D17">
-        <v>11.77543055166407</v>
+        <v>12.2976020768882</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>30.34554856271795</v>
+        <v>22.23497992252141</v>
       </c>
       <c r="G17">
-        <v>28.76727959446471</v>
+        <v>20.92799108289386</v>
       </c>
       <c r="H17">
-        <v>14.33428150568202</v>
+        <v>8.337277151108895</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.42960667753961</v>
+        <v>9.245561720094361</v>
       </c>
       <c r="K17">
-        <v>9.869216197534874</v>
+        <v>14.57667311940862</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.81300401642876</v>
+        <v>13.52025782703667</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.86615597963914</v>
+        <v>16.4619170802312</v>
       </c>
       <c r="C18">
-        <v>6.19863595587884</v>
+        <v>9.001856482081848</v>
       </c>
       <c r="D18">
-        <v>11.74220816036059</v>
+        <v>12.16126178421234</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>30.35359028533679</v>
+        <v>22.13323143737752</v>
       </c>
       <c r="G18">
-        <v>28.79072306641901</v>
+        <v>20.87005988515151</v>
       </c>
       <c r="H18">
-        <v>14.34638057418202</v>
+        <v>8.357572418697305</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.42107796948186</v>
+        <v>9.171082609273887</v>
       </c>
       <c r="K18">
-        <v>9.805812922159438</v>
+        <v>14.42032926523444</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.83332129539836</v>
+        <v>13.53354712924333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.83742409961794</v>
+        <v>16.39394697045415</v>
       </c>
       <c r="C19">
-        <v>6.185483546935934</v>
+        <v>8.974801114813713</v>
       </c>
       <c r="D19">
-        <v>11.7309734699218</v>
+        <v>12.1148437770801</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>30.35644862320099</v>
+        <v>22.09912710624624</v>
       </c>
       <c r="G19">
-        <v>28.79882816969398</v>
+        <v>20.85107812604504</v>
       </c>
       <c r="H19">
-        <v>14.35051622945565</v>
+        <v>8.364561544239283</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.41822656254859</v>
+        <v>9.145837821724713</v>
       </c>
       <c r="K19">
-        <v>9.784259055525881</v>
+        <v>14.36702241856237</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.84028205974187</v>
+        <v>13.53834508544174</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.96616372663613</v>
+        <v>16.69775152118441</v>
       </c>
       <c r="C20">
-        <v>6.244423241335943</v>
+        <v>9.095961248585501</v>
       </c>
       <c r="D20">
-        <v>11.78158560886643</v>
+        <v>12.32271386884385</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>30.34412462504903</v>
+        <v>22.25397569741549</v>
       </c>
       <c r="G20">
-        <v>28.76302040010761</v>
+        <v>20.93901513867144</v>
       </c>
       <c r="H20">
-        <v>14.33206082093967</v>
+        <v>8.333577272699154</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.43120233736603</v>
+        <v>9.259332668390305</v>
       </c>
       <c r="K20">
-        <v>9.880909122539231</v>
+        <v>14.60543229462277</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.80928255970866</v>
+        <v>13.51794141846358</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.38863443941172</v>
+        <v>17.682437555826</v>
       </c>
       <c r="C21">
-        <v>6.437990536226773</v>
+        <v>9.49252581373179</v>
       </c>
       <c r="D21">
-        <v>11.95245606657579</v>
+        <v>13.00315773074297</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>30.31215775230349</v>
+        <v>22.79835310836863</v>
       </c>
       <c r="G21">
-        <v>28.65441523831035</v>
+        <v>21.27949699861606</v>
       </c>
       <c r="H21">
-        <v>14.27277442066693</v>
+        <v>8.237963987757926</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.47729771594691</v>
+        <v>9.638505215007791</v>
       </c>
       <c r="K21">
-        <v>10.19934586611161</v>
+        <v>15.38056737004625</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.71082056970791</v>
+        <v>13.47099588311596</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.65686310983796</v>
+        <v>18.29930006185448</v>
       </c>
       <c r="C22">
-        <v>6.561025281175621</v>
+        <v>9.743698652866772</v>
       </c>
       <c r="D22">
-        <v>12.06457496888811</v>
+        <v>13.43428881930072</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>30.29831166060227</v>
+        <v>23.17213006333301</v>
       </c>
       <c r="G22">
-        <v>28.59221435489446</v>
+        <v>21.53667179849348</v>
       </c>
       <c r="H22">
-        <v>14.23605553642933</v>
+        <v>8.182192249502361</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.50925598517819</v>
+        <v>9.88445116326189</v>
       </c>
       <c r="K22">
-        <v>10.40247256982101</v>
+        <v>15.86784022803661</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.6507239649054</v>
+        <v>13.45742947909362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.5144477438416</v>
+        <v>17.97249817648079</v>
       </c>
       <c r="C23">
-        <v>6.495686037678572</v>
+        <v>9.610384950199661</v>
       </c>
       <c r="D23">
-        <v>12.0047048959332</v>
+        <v>13.20543793999133</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>30.30505632219224</v>
+        <v>22.97099090236363</v>
       </c>
       <c r="G23">
-        <v>28.62460538355543</v>
+        <v>21.39617721161796</v>
       </c>
       <c r="H23">
-        <v>14.25546751036216</v>
+        <v>8.211318050395896</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.49203359151003</v>
+        <v>9.75337090609993</v>
       </c>
       <c r="K23">
-        <v>10.29453486670986</v>
+        <v>15.60954191822995</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.68240866588832</v>
+        <v>13.4630385717248</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.95913086518272</v>
+        <v>16.6812041154906</v>
       </c>
       <c r="C24">
-        <v>6.241202946411961</v>
+        <v>9.089346802612736</v>
       </c>
       <c r="D24">
-        <v>11.77880271894053</v>
+        <v>12.31136567522697</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>30.34476591742337</v>
+        <v>22.24538157420591</v>
       </c>
       <c r="G24">
-        <v>28.76494290614207</v>
+        <v>20.93401966073124</v>
       </c>
       <c r="H24">
-        <v>14.33306406630826</v>
+        <v>8.335247795570005</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.43048029673335</v>
+        <v>9.253107453100679</v>
       </c>
       <c r="K24">
-        <v>9.875624440594544</v>
+        <v>14.59243723240599</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.81096351981383</v>
+        <v>13.5189831466303</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.32881930346308</v>
+        <v>15.17260365416046</v>
       </c>
       <c r="C25">
-        <v>5.952783931796669</v>
+        <v>8.494133566437602</v>
       </c>
       <c r="D25">
-        <v>11.53812258712521</v>
+        <v>11.29006027819779</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>30.41777429167761</v>
+        <v>21.53967157566458</v>
       </c>
       <c r="G25">
-        <v>28.9536429365049</v>
+        <v>20.57679806741444</v>
       </c>
       <c r="H25">
-        <v>14.42547260869095</v>
+        <v>8.495312585961809</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.37213991790844</v>
+        <v>8.707287686748783</v>
       </c>
       <c r="K25">
-        <v>9.40435069489944</v>
+        <v>13.41265688443035</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.96781983487079</v>
+        <v>13.64631807882352</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.96105186571001</v>
+        <v>12.54243369402795</v>
       </c>
       <c r="C2">
-        <v>8.028966305522815</v>
+        <v>8.260685201118461</v>
       </c>
       <c r="D2">
-        <v>10.49137765260919</v>
+        <v>10.92973313722988</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.08531451475142</v>
+        <v>22.05297916547158</v>
       </c>
       <c r="G2">
-        <v>20.42543079300255</v>
+        <v>21.08146802341</v>
       </c>
       <c r="H2">
-        <v>8.633431606078352</v>
+        <v>1.565886236179088</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.539434326325635</v>
       </c>
       <c r="J2">
-        <v>8.302433567440918</v>
+        <v>8.804822826990401</v>
       </c>
       <c r="K2">
-        <v>12.47356106428226</v>
+        <v>13.25642572102732</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>9.287461493988088</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.53411047283702</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.79075233611051</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.26341962807012</v>
+      </c>
+      <c r="Q2">
+        <v>14.14157766743635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.07665936677643</v>
+        <v>11.744868996612</v>
       </c>
       <c r="C3">
-        <v>7.698055588522998</v>
+        <v>7.843867845211232</v>
       </c>
       <c r="D3">
-        <v>9.922756187432251</v>
+        <v>10.35806958661534</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.817239267438</v>
+        <v>21.59488250183358</v>
       </c>
       <c r="G3">
-        <v>20.38669694934238</v>
+        <v>20.7901944890501</v>
       </c>
       <c r="H3">
-        <v>8.738597196879297</v>
+        <v>1.770788130217613</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.521394877403365</v>
       </c>
       <c r="J3">
-        <v>8.027692326302574</v>
+        <v>8.830198369975495</v>
       </c>
       <c r="K3">
-        <v>11.79393142794977</v>
+        <v>13.34719315301432</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.931706425953809</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.89075530407264</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.91693122559087</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.37353017740209</v>
+      </c>
+      <c r="Q3">
+        <v>14.11469955187891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.50233112032992</v>
+        <v>11.22378890047264</v>
       </c>
       <c r="C4">
-        <v>7.487631665301397</v>
+        <v>7.579156532774949</v>
       </c>
       <c r="D4">
-        <v>9.560970044299909</v>
+        <v>9.991863595084855</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.671873613356</v>
+        <v>21.31462301337875</v>
       </c>
       <c r="G4">
-        <v>20.39227709652227</v>
+        <v>20.61880759944375</v>
       </c>
       <c r="H4">
-        <v>8.808549966074711</v>
+        <v>1.901593705206215</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.598146864645638</v>
       </c>
       <c r="J4">
-        <v>7.859394387838921</v>
+        <v>8.84817299045879</v>
       </c>
       <c r="K4">
-        <v>11.35573015180083</v>
+        <v>13.40627132405071</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.705328449592395</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.47487162375827</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.00731684023854</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.44304793504239</v>
+      </c>
+      <c r="Q4">
+        <v>14.10312888134234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.26041437611253</v>
+        <v>10.99876502917081</v>
       </c>
       <c r="C5">
-        <v>7.400146489877622</v>
+        <v>7.477355102938732</v>
       </c>
       <c r="D5">
-        <v>9.410516120998501</v>
+        <v>9.840520667580046</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.61739520277517</v>
+        <v>21.19562889077983</v>
       </c>
       <c r="G5">
-        <v>20.40160123910879</v>
+        <v>20.54218966176736</v>
       </c>
       <c r="H5">
-        <v>8.838364817879592</v>
+        <v>1.956313384416255</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.633453008993341</v>
       </c>
       <c r="J5">
-        <v>7.791005375812183</v>
+        <v>8.854753465939186</v>
       </c>
       <c r="K5">
-        <v>11.17198417314285</v>
+        <v>13.42766170202422</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.611059648039479</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.3003944347499</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.04724737969893</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.47197729013531</v>
+      </c>
+      <c r="Q5">
+        <v>14.09619382844694</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.21976893413446</v>
+        <v>10.9550676873991</v>
       </c>
       <c r="C6">
-        <v>7.385517556980097</v>
+        <v>7.470384326007028</v>
       </c>
       <c r="D6">
-        <v>9.38535600519123</v>
+        <v>9.817116217136714</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.60863397750872</v>
+        <v>21.16958725257878</v>
       </c>
       <c r="G6">
-        <v>20.40356532972914</v>
+        <v>20.51898004978377</v>
       </c>
       <c r="H6">
-        <v>8.843393344882454</v>
+        <v>1.965654409727329</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.643364945096283</v>
       </c>
       <c r="J6">
-        <v>7.779664010062727</v>
+        <v>8.854250783873239</v>
       </c>
       <c r="K6">
-        <v>11.14116351360833</v>
+        <v>13.42697753287154</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.595170532707613</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.27132008670129</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.05406067738549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.47696088222068</v>
+      </c>
+      <c r="Q6">
+        <v>14.09091942358646</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.49910041914219</v>
+        <v>11.20516178426802</v>
       </c>
       <c r="C7">
-        <v>7.486458715218933</v>
+        <v>7.604799891817563</v>
       </c>
       <c r="D7">
-        <v>9.558952978972748</v>
+        <v>9.995049539269891</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.67111974226037</v>
+        <v>21.29592002064174</v>
       </c>
       <c r="G7">
-        <v>20.39237474906751</v>
+        <v>20.58895331205534</v>
       </c>
       <c r="H7">
-        <v>8.808946817778951</v>
+        <v>1.902803419530791</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.609175106722989</v>
       </c>
       <c r="J7">
-        <v>7.858471155937943</v>
+        <v>8.84381430613616</v>
       </c>
       <c r="K7">
-        <v>11.35327292111917</v>
+        <v>13.39485467295957</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.703739148730204</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.47309664656383</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.00784300713856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.44389982355482</v>
+      </c>
+      <c r="Q7">
+        <v>14.09159796091455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.662607714113</v>
+        <v>12.25481507226646</v>
       </c>
       <c r="C8">
-        <v>7.916419307906425</v>
+        <v>8.152548649854827</v>
       </c>
       <c r="D8">
-        <v>10.29802782751293</v>
+        <v>10.74230486051196</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.98884880118815</v>
+        <v>21.87289744469922</v>
       </c>
       <c r="G8">
-        <v>20.40578506217735</v>
+        <v>20.94210551595928</v>
       </c>
       <c r="H8">
-        <v>8.668548154096026</v>
+        <v>1.636101524501572</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.503411732084758</v>
       </c>
       <c r="J8">
-        <v>8.207675816094845</v>
+        <v>8.807221994951306</v>
       </c>
       <c r="K8">
-        <v>12.24360641613525</v>
+        <v>13.27155501226413</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>9.166098526708941</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.31734973895594</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.83148745310859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.30183091332833</v>
+      </c>
+      <c r="Q8">
+        <v>14.11626646403351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.69635926180944</v>
+        <v>14.08962312565476</v>
       </c>
       <c r="C9">
-        <v>8.698939497722822</v>
+        <v>9.110285843253394</v>
       </c>
       <c r="D9">
-        <v>11.64152907338126</v>
+        <v>12.07431298496721</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.76717131007071</v>
+        <v>23.03690123957108</v>
       </c>
       <c r="G9">
-        <v>20.67907016107654</v>
+        <v>21.74315487357445</v>
       </c>
       <c r="H9">
-        <v>8.43809321247091</v>
+        <v>1.959931867908472</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.778095569961473</v>
       </c>
       <c r="J9">
-        <v>8.891786230121573</v>
+        <v>8.762963974446846</v>
       </c>
       <c r="K9">
-        <v>13.82107480047108</v>
+        <v>13.07812855473309</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.00726862445982</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>12.80403358380904</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.59509797336505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.03714647525937</v>
+      </c>
+      <c r="Q9">
+        <v>14.22537268303136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.04073357878254</v>
+        <v>15.26315345466494</v>
       </c>
       <c r="C10">
-        <v>9.233442105825985</v>
+        <v>9.748755916932922</v>
       </c>
       <c r="D10">
-        <v>12.55859007204471</v>
+        <v>12.81493562353653</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.43624490658016</v>
+        <v>23.71582788915704</v>
       </c>
       <c r="G10">
-        <v>21.04793132586759</v>
+        <v>22.22798672225569</v>
       </c>
       <c r="H10">
-        <v>8.29941095990238</v>
+        <v>2.269101916033481</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.968685574040856</v>
       </c>
       <c r="J10">
-        <v>9.389473345733588</v>
+        <v>8.72202381008128</v>
       </c>
       <c r="K10">
-        <v>14.87502228124638</v>
+        <v>12.91915083242513</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.40132166357639</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>13.76999045343568</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.49819303871441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.85796808847042</v>
+      </c>
+      <c r="Q10">
+        <v>14.27635807269149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.62019072502027</v>
+        <v>15.59547363457085</v>
       </c>
       <c r="C11">
-        <v>9.467292396288242</v>
+        <v>9.805239075262156</v>
       </c>
       <c r="D11">
-        <v>12.95985409744946</v>
+        <v>11.7756314678917</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.76202971327835</v>
+        <v>22.58376631727632</v>
       </c>
       <c r="G11">
-        <v>21.2554360672934</v>
+        <v>21.33557570196983</v>
       </c>
       <c r="H11">
-        <v>8.243776430003015</v>
+        <v>3.038492068775972</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.027724032629591</v>
       </c>
       <c r="J11">
-        <v>9.614039095227541</v>
+        <v>8.53289204901218</v>
       </c>
       <c r="K11">
-        <v>15.33146570544293</v>
+        <v>12.58046078589908</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.072636638966518</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.00146292752475</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.47306147166756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.83529213804987</v>
+      </c>
+      <c r="Q11">
+        <v>13.8515838708132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.8350368514431</v>
+        <v>15.65647407589172</v>
       </c>
       <c r="C12">
-        <v>9.554474929744641</v>
+        <v>9.688926968828678</v>
       </c>
       <c r="D12">
-        <v>13.10947599985454</v>
+        <v>10.73052582698123</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.88848470642751</v>
+        <v>21.49784283146243</v>
       </c>
       <c r="G12">
-        <v>21.33994443461899</v>
+        <v>20.50390838669359</v>
       </c>
       <c r="H12">
-        <v>8.223854617963484</v>
+        <v>4.239298352845752</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.035295764041532</v>
       </c>
       <c r="J12">
-        <v>9.698760322977149</v>
+        <v>8.385609075158063</v>
       </c>
       <c r="K12">
-        <v>15.50099546279904</v>
+        <v>12.34508179238419</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.94995137114209</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.99943773455908</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.46646503148267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.85820936891666</v>
+      </c>
+      <c r="Q12">
+        <v>13.49239708715613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.78896906685682</v>
+        <v>15.49676458561169</v>
       </c>
       <c r="C13">
-        <v>9.53576007946765</v>
+        <v>9.463688848852227</v>
       </c>
       <c r="D13">
-        <v>13.07735626854591</v>
+        <v>9.596779437921464</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.86111300333547</v>
+        <v>20.34607338028319</v>
       </c>
       <c r="G13">
-        <v>21.32147707988078</v>
+        <v>19.61727432721781</v>
       </c>
       <c r="H13">
-        <v>8.228092935602255</v>
+        <v>5.534530584928805</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.008494490957106</v>
       </c>
       <c r="J13">
-        <v>9.680528930369531</v>
+        <v>8.254815019546898</v>
       </c>
       <c r="K13">
-        <v>15.46463168323791</v>
+        <v>12.15742786379241</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.941513587259805</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.81887120217064</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.4677526581976</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.91601143993459</v>
+      </c>
+      <c r="Q13">
+        <v>13.14372405501014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63795785476026</v>
+        <v>15.27945840100757</v>
       </c>
       <c r="C14">
-        <v>9.474492613810405</v>
+        <v>9.261243433250463</v>
       </c>
       <c r="D14">
-        <v>12.97221041619377</v>
+        <v>8.753373122303756</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.77237134828905</v>
+        <v>19.50526828402293</v>
       </c>
       <c r="G14">
-        <v>21.262268602796</v>
+        <v>18.96333305157608</v>
       </c>
       <c r="H14">
-        <v>8.242114042235995</v>
+        <v>6.47212769661237</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.975487679591781</v>
       </c>
       <c r="J14">
-        <v>9.621015783761198</v>
+        <v>8.170185899442927</v>
       </c>
       <c r="K14">
-        <v>15.34547948075551</v>
+        <v>12.04635314246315</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.337305205536789</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.60981602741409</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.47245911776935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.97230160376273</v>
+      </c>
+      <c r="Q14">
+        <v>12.90278290512076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.54486355996861</v>
+        <v>15.17354708285702</v>
       </c>
       <c r="C15">
-        <v>9.43678501610645</v>
+        <v>9.19623450206266</v>
       </c>
       <c r="D15">
-        <v>12.90750142726644</v>
+        <v>8.528892274252534</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.7184166880398</v>
+        <v>19.28280748129891</v>
       </c>
       <c r="G15">
-        <v>21.22678010159425</v>
+        <v>18.78514712263118</v>
       </c>
       <c r="H15">
-        <v>8.250853887611669</v>
+        <v>6.686087937918177</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.961367631538747</v>
       </c>
       <c r="J15">
-        <v>9.584519574808786</v>
+        <v>8.152197018907339</v>
       </c>
       <c r="K15">
-        <v>15.27206346514529</v>
+        <v>12.0262465772562</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.206245964609751</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.52000469307235</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.47572813958227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.99312949331927</v>
+      </c>
+      <c r="Q15">
+        <v>12.84386998172329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.0022215464181</v>
+        <v>14.70810138203225</v>
       </c>
       <c r="C16">
-        <v>9.217969224643857</v>
+        <v>8.978448622057234</v>
       </c>
       <c r="D16">
-        <v>12.53204257820167</v>
+        <v>8.376269258252099</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.41538590175727</v>
+        <v>19.19064511545449</v>
       </c>
       <c r="G16">
-        <v>21.03518900794928</v>
+        <v>18.71930033063504</v>
       </c>
       <c r="H16">
-        <v>8.303202975584528</v>
+        <v>6.442176126167753</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.888354559966302</v>
       </c>
       <c r="J16">
-        <v>9.374755766932783</v>
+        <v>8.193490714787499</v>
       </c>
       <c r="K16">
-        <v>14.84472889693635</v>
+        <v>12.12668969986771</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.201806322779661</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.14915736026381</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.50023337621653</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.05027294373918</v>
+      </c>
+      <c r="Q16">
+        <v>12.88409110769227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.661128860798</v>
+        <v>14.46367004738046</v>
       </c>
       <c r="C17">
-        <v>9.081324497761322</v>
+        <v>8.921551227690367</v>
       </c>
       <c r="D17">
-        <v>12.2976020768882</v>
+        <v>8.724769720424979</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.23497992252141</v>
+        <v>19.57195730004422</v>
       </c>
       <c r="G17">
-        <v>20.92799108289386</v>
+        <v>19.02144858879908</v>
       </c>
       <c r="H17">
-        <v>8.337277151108895</v>
+        <v>5.687074679771439</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.849860882721291</v>
       </c>
       <c r="J17">
-        <v>9.245561720094361</v>
+        <v>8.270137246943227</v>
       </c>
       <c r="K17">
-        <v>14.57667311940862</v>
+        <v>12.26181509428733</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.499157329312659</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.97506584256392</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.52025782703667</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.06567383995918</v>
+      </c>
+      <c r="Q17">
+        <v>13.043209727189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.4619170802312</v>
+        <v>14.40028561039533</v>
       </c>
       <c r="C18">
-        <v>9.001856482081848</v>
+        <v>8.982038901939546</v>
       </c>
       <c r="D18">
-        <v>12.16126178421234</v>
+        <v>9.548370815953074</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>22.13323143737752</v>
+        <v>20.4185456271708</v>
       </c>
       <c r="G18">
-        <v>20.87005988515151</v>
+        <v>19.69050236275089</v>
       </c>
       <c r="H18">
-        <v>8.357572418697305</v>
+        <v>4.455577981644086</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.834049259750593</v>
       </c>
       <c r="J18">
-        <v>9.171082609273887</v>
+        <v>8.388271928557057</v>
       </c>
       <c r="K18">
-        <v>14.42032926523444</v>
+        <v>12.4509757396743</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.207286070504754</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.95619073949637</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.53354712924333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.04759578855754</v>
+      </c>
+      <c r="Q18">
+        <v>13.32924761263417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.39394697045415</v>
+        <v>14.4657728122136</v>
       </c>
       <c r="C19">
-        <v>8.974801114813713</v>
+        <v>9.176200205109751</v>
       </c>
       <c r="D19">
-        <v>12.1148437770801</v>
+        <v>10.69592304243579</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.09912710624624</v>
+        <v>21.55433050922775</v>
       </c>
       <c r="G19">
-        <v>20.85107812604504</v>
+        <v>20.55478239629248</v>
       </c>
       <c r="H19">
-        <v>8.364561544239283</v>
+        <v>3.103280665196188</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.848263149202845</v>
       </c>
       <c r="J19">
-        <v>9.145837821724713</v>
+        <v>8.5238559895986</v>
       </c>
       <c r="K19">
-        <v>14.36702241856237</v>
+        <v>12.65375559464807</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.309739910801065</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.06600114103339</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.53834508544174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.01009329612353</v>
+      </c>
+      <c r="Q19">
+        <v>13.6779572530905</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.69775152118441</v>
+        <v>14.92633999416066</v>
       </c>
       <c r="C20">
-        <v>9.095961248585501</v>
+        <v>9.651895768617623</v>
       </c>
       <c r="D20">
-        <v>12.32271386884385</v>
+        <v>12.63049705691255</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.25397569741549</v>
+        <v>23.48260591636741</v>
       </c>
       <c r="G20">
-        <v>20.93901513867144</v>
+        <v>22.00995467371858</v>
       </c>
       <c r="H20">
-        <v>8.333577272699154</v>
+        <v>2.186021450637428</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.929715106952165</v>
       </c>
       <c r="J20">
-        <v>9.259332668390305</v>
+        <v>8.717520870970525</v>
       </c>
       <c r="K20">
-        <v>14.60543229462277</v>
+        <v>12.92221241294801</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.2909002730585</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>13.52376086052584</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.51794141846358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.90776743226337</v>
+      </c>
+      <c r="Q20">
+        <v>14.22456977007153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.682437555826</v>
+        <v>15.81747122770105</v>
       </c>
       <c r="C21">
-        <v>9.49252581373179</v>
+        <v>10.15592146464797</v>
       </c>
       <c r="D21">
-        <v>13.00315773074297</v>
+        <v>13.41771989256666</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.79835310836863</v>
+        <v>24.26677342280567</v>
       </c>
       <c r="G21">
-        <v>21.27949699861606</v>
+        <v>22.60483130665959</v>
       </c>
       <c r="H21">
-        <v>8.237963987757926</v>
+        <v>2.442852135356541</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.076771440230098</v>
       </c>
       <c r="J21">
-        <v>9.638505215007791</v>
+        <v>8.722947717525654</v>
       </c>
       <c r="K21">
-        <v>15.38056737004625</v>
+        <v>12.85926877674546</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>10.85937315276473</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.26510754695125</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.47099588311596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.76440099487161</v>
+      </c>
+      <c r="Q21">
+        <v>14.35798837460967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.29930006185448</v>
+        <v>16.37788237291288</v>
       </c>
       <c r="C22">
-        <v>9.743698652866772</v>
+        <v>10.43450957791791</v>
       </c>
       <c r="D22">
-        <v>13.43428881930072</v>
+        <v>13.82935266695641</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.17213006333301</v>
+        <v>24.71146660627702</v>
       </c>
       <c r="G22">
-        <v>21.53667179849348</v>
+        <v>22.96845254881052</v>
       </c>
       <c r="H22">
-        <v>8.182192249502361</v>
+        <v>2.598296196074408</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.165297139592417</v>
       </c>
       <c r="J22">
-        <v>9.88445116326189</v>
+        <v>8.724977843905013</v>
       </c>
       <c r="K22">
-        <v>15.86784022803661</v>
+        <v>12.82216254029371</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.12963896189098</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.71845611230517</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.45742947909362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.67365044593998</v>
+      </c>
+      <c r="Q22">
+        <v>14.43895751198102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.97249817648079</v>
+        <v>16.09467110500583</v>
       </c>
       <c r="C23">
-        <v>9.610384950199661</v>
+        <v>10.26180066508513</v>
       </c>
       <c r="D23">
-        <v>13.20543793999133</v>
+        <v>13.60642689900269</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.97099090236363</v>
+        <v>24.4918544483198</v>
       </c>
       <c r="G23">
-        <v>21.39617721161796</v>
+        <v>22.80432927336158</v>
       </c>
       <c r="H23">
-        <v>8.211318050395896</v>
+        <v>2.516103272292011</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.114127713434763</v>
       </c>
       <c r="J23">
-        <v>9.75337090609993</v>
+        <v>8.728753086770064</v>
       </c>
       <c r="K23">
-        <v>15.60954191822995</v>
+        <v>12.85534036121651</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.98645255393552</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.4777567781286</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.4630385717248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.72058022799935</v>
+      </c>
+      <c r="Q23">
+        <v>14.40810423661716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.6812041154906</v>
+        <v>14.94754748016875</v>
       </c>
       <c r="C24">
-        <v>9.089346802612736</v>
+        <v>9.62768378357864</v>
       </c>
       <c r="D24">
-        <v>12.31136567522697</v>
+        <v>12.73817503405253</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.24538157420591</v>
+        <v>23.62843839545195</v>
       </c>
       <c r="G24">
-        <v>20.93401966073124</v>
+        <v>22.1474920065662</v>
       </c>
       <c r="H24">
-        <v>8.335247795570005</v>
+        <v>2.196571727990368</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.923286416805698</v>
       </c>
       <c r="J24">
-        <v>9.253107453100679</v>
+        <v>8.740461838807997</v>
       </c>
       <c r="K24">
-        <v>14.59243723240599</v>
+        <v>12.96737236808548</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.42641768648781</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.52804470172308</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.5189831466303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.90392718187104</v>
+      </c>
+      <c r="Q24">
+        <v>14.28223974833249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.17260365416046</v>
+        <v>13.59615195086056</v>
       </c>
       <c r="C25">
-        <v>8.494133566437602</v>
+        <v>8.901808670522609</v>
       </c>
       <c r="D25">
-        <v>11.29006027819779</v>
+        <v>11.73593867087486</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.53967157566458</v>
+        <v>22.69355418779455</v>
       </c>
       <c r="G25">
-        <v>20.57679806741444</v>
+        <v>21.47084952247377</v>
       </c>
       <c r="H25">
-        <v>8.495312585961809</v>
+        <v>1.835204213732292</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.710947289978651</v>
       </c>
       <c r="J25">
-        <v>8.707287686748783</v>
+        <v>8.76482625027503</v>
       </c>
       <c r="K25">
-        <v>13.41265688443035</v>
+        <v>13.10631102097564</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.786684849395686</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.42099467650038</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.64631807882352</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.10867210580104</v>
+      </c>
+      <c r="Q25">
+        <v>14.17110747647026</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.54243369402795</v>
+        <v>12.40798758956213</v>
       </c>
       <c r="C2">
-        <v>8.260685201118461</v>
+        <v>8.402797615656072</v>
       </c>
       <c r="D2">
-        <v>10.92973313722988</v>
+        <v>11.00869856068316</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.05297916547158</v>
+        <v>21.78818545119934</v>
       </c>
       <c r="G2">
-        <v>21.08146802341</v>
+        <v>19.99318041489585</v>
       </c>
       <c r="H2">
-        <v>1.565886236179088</v>
+        <v>1.567993542180995</v>
       </c>
       <c r="I2">
-        <v>2.539434326325635</v>
+        <v>2.601342954131734</v>
       </c>
       <c r="J2">
-        <v>8.804822826990401</v>
+        <v>9.134874243074396</v>
       </c>
       <c r="K2">
-        <v>13.25642572102732</v>
+        <v>12.94245868837275</v>
       </c>
       <c r="L2">
-        <v>9.287461493988088</v>
+        <v>11.30875141627025</v>
       </c>
       <c r="M2">
-        <v>11.53411047283702</v>
+        <v>7.825995157618079</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.29593235635997</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.54149173739448</v>
       </c>
       <c r="P2">
-        <v>12.26341962807012</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.14157766743635</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.21818846968551</v>
+      </c>
+      <c r="S2">
+        <v>13.93251370672749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.744868996612</v>
+        <v>11.65431626017462</v>
       </c>
       <c r="C3">
-        <v>7.843867845211232</v>
+        <v>7.898051893605669</v>
       </c>
       <c r="D3">
-        <v>10.35806958661534</v>
+        <v>10.42915555046364</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.59488250183358</v>
+        <v>21.36316261710948</v>
       </c>
       <c r="G3">
-        <v>20.7901944890501</v>
+        <v>19.77331312739921</v>
       </c>
       <c r="H3">
-        <v>1.770788130217613</v>
+        <v>1.752354904695252</v>
       </c>
       <c r="I3">
-        <v>2.521394877403365</v>
+        <v>2.497573695844145</v>
       </c>
       <c r="J3">
-        <v>8.830198369975495</v>
+        <v>9.138539391543752</v>
       </c>
       <c r="K3">
-        <v>13.34719315301432</v>
+        <v>13.04596132855834</v>
       </c>
       <c r="L3">
-        <v>8.931706425953809</v>
+        <v>11.46354002852465</v>
       </c>
       <c r="M3">
-        <v>10.89075530407264</v>
+        <v>7.854452958466069</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.944086905230607</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.89937215657678</v>
       </c>
       <c r="P3">
-        <v>12.37353017740209</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.11469955187891</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.31600817808877</v>
+      </c>
+      <c r="S3">
+        <v>13.92361228957924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22378890047264</v>
+        <v>11.1620045444994</v>
       </c>
       <c r="C4">
-        <v>7.579156532774949</v>
+        <v>7.576294039501244</v>
       </c>
       <c r="D4">
-        <v>9.991863595084855</v>
+        <v>10.0581227051463</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.31462301337875</v>
+        <v>21.10258753048949</v>
       </c>
       <c r="G4">
-        <v>20.61880759944375</v>
+        <v>19.64713323991339</v>
       </c>
       <c r="H4">
-        <v>1.901593705206215</v>
+        <v>1.879688592618681</v>
       </c>
       <c r="I4">
-        <v>2.598146864645638</v>
+        <v>2.518591785253008</v>
       </c>
       <c r="J4">
-        <v>8.84817299045879</v>
+        <v>9.14173119444726</v>
       </c>
       <c r="K4">
-        <v>13.40627132405071</v>
+        <v>13.11186827123417</v>
       </c>
       <c r="L4">
-        <v>8.705328449592395</v>
+        <v>11.56196882114294</v>
       </c>
       <c r="M4">
-        <v>10.47487162375827</v>
+        <v>7.890131786638927</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.720292761444734</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.48431547378966</v>
       </c>
       <c r="P4">
-        <v>12.44304793504239</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.10312888134234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.37818369011853</v>
+      </c>
+      <c r="S4">
+        <v>13.92218256022523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99876502917081</v>
+        <v>10.94917589758128</v>
       </c>
       <c r="C5">
-        <v>7.477355102938732</v>
+        <v>7.45102317702332</v>
       </c>
       <c r="D5">
-        <v>9.840520667580046</v>
+        <v>9.904838829086776</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.19562889077983</v>
+        <v>20.99140127790313</v>
       </c>
       <c r="G5">
-        <v>20.54218966176736</v>
+        <v>19.58906036003703</v>
       </c>
       <c r="H5">
-        <v>1.956313384416255</v>
+        <v>1.932964669415445</v>
       </c>
       <c r="I5">
-        <v>2.633453008993341</v>
+        <v>2.551181524503738</v>
       </c>
       <c r="J5">
-        <v>8.854753465939186</v>
+        <v>9.141907803986088</v>
       </c>
       <c r="K5">
-        <v>13.42766170202422</v>
+        <v>13.13584489085946</v>
       </c>
       <c r="L5">
-        <v>8.611059648039479</v>
+        <v>11.59947247431264</v>
       </c>
       <c r="M5">
-        <v>10.3003944347499</v>
+        <v>7.907543641907458</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.627126393978077</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.3102024177526</v>
       </c>
       <c r="P5">
-        <v>12.47197729013531</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.09619382844694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.40421022302041</v>
+      </c>
+      <c r="S5">
+        <v>13.91914663487417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.9550676873991</v>
+        <v>10.90753841152256</v>
       </c>
       <c r="C6">
-        <v>7.470384326007028</v>
+        <v>7.44075481448329</v>
       </c>
       <c r="D6">
-        <v>9.817116217136714</v>
+        <v>9.88112895911844</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>21.16958725257878</v>
+        <v>20.96660168475975</v>
       </c>
       <c r="G6">
-        <v>20.51898004978377</v>
+        <v>19.56874554149678</v>
       </c>
       <c r="H6">
-        <v>1.965654409727329</v>
+        <v>1.94205983569951</v>
       </c>
       <c r="I6">
-        <v>2.643364945096283</v>
+        <v>2.561367348355146</v>
       </c>
       <c r="J6">
-        <v>8.854250783873239</v>
+        <v>9.140291399812153</v>
       </c>
       <c r="K6">
-        <v>13.42697753287154</v>
+        <v>13.13563302990179</v>
       </c>
       <c r="L6">
-        <v>8.595170532707613</v>
+        <v>11.60153186455026</v>
       </c>
       <c r="M6">
-        <v>10.27132008670129</v>
+        <v>7.908675111293451</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.611426229622058</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.28119708496399</v>
       </c>
       <c r="P6">
-        <v>12.47696088222068</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.09091942358646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.40876547886632</v>
+      </c>
+      <c r="S6">
+        <v>13.9144967856242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.20516178426802</v>
+        <v>11.14095067451034</v>
       </c>
       <c r="C7">
-        <v>7.604799891817563</v>
+        <v>7.597205531421891</v>
       </c>
       <c r="D7">
-        <v>9.995049539269891</v>
+        <v>10.06468450678111</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.29592002064174</v>
+        <v>21.07288312366448</v>
       </c>
       <c r="G7">
-        <v>20.58895331205534</v>
+        <v>19.69556233434717</v>
       </c>
       <c r="H7">
-        <v>1.902803419530791</v>
+        <v>1.881251506861936</v>
       </c>
       <c r="I7">
-        <v>2.609175106722989</v>
+        <v>2.531914332616151</v>
       </c>
       <c r="J7">
-        <v>8.84381430613616</v>
+        <v>9.106218209570986</v>
       </c>
       <c r="K7">
-        <v>13.39485467295957</v>
+        <v>13.0967437347356</v>
       </c>
       <c r="L7">
-        <v>8.703739148730204</v>
+        <v>11.54744637714318</v>
       </c>
       <c r="M7">
-        <v>10.47309664656383</v>
+        <v>7.882355302862244</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.718463050083317</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.47886372138247</v>
       </c>
       <c r="P7">
-        <v>12.44389982355482</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.09159796091455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.37950052881396</v>
+      </c>
+      <c r="S7">
+        <v>13.90351444428995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.25481507226646</v>
+        <v>12.12712869137571</v>
       </c>
       <c r="C8">
-        <v>8.152548649854827</v>
+        <v>8.24793933253331</v>
       </c>
       <c r="D8">
-        <v>10.74230486051196</v>
+        <v>10.82910521628418</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.87289744469922</v>
+        <v>21.58393419497574</v>
       </c>
       <c r="G8">
-        <v>20.94210551595928</v>
+        <v>20.1362834137414</v>
       </c>
       <c r="H8">
-        <v>1.636101524501572</v>
+        <v>1.62245824567475</v>
       </c>
       <c r="I8">
-        <v>2.503411732084758</v>
+        <v>2.569282747270154</v>
       </c>
       <c r="J8">
-        <v>8.807221994951306</v>
+        <v>9.029083736221139</v>
       </c>
       <c r="K8">
-        <v>13.27155501226413</v>
+        <v>12.94968786171553</v>
       </c>
       <c r="L8">
-        <v>9.166098526708941</v>
+        <v>11.33673888783514</v>
       </c>
       <c r="M8">
-        <v>11.31734973895594</v>
+        <v>7.814023820650107</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.175107699725352</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.31367898334822</v>
       </c>
       <c r="P8">
-        <v>12.30183091332833</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.11626646403351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.25404991239603</v>
+      </c>
+      <c r="S8">
+        <v>13.8899633335002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08962312565476</v>
+        <v>13.86106326069206</v>
       </c>
       <c r="C9">
-        <v>9.110285843253394</v>
+        <v>9.40283174297881</v>
       </c>
       <c r="D9">
-        <v>12.07431298496721</v>
+        <v>12.18199109660667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.03690123957108</v>
+        <v>22.65534659341771</v>
       </c>
       <c r="G9">
-        <v>21.74315487357445</v>
+        <v>20.83104291656435</v>
       </c>
       <c r="H9">
-        <v>1.959931867908472</v>
+        <v>1.960159699933923</v>
       </c>
       <c r="I9">
-        <v>2.778095569961473</v>
+        <v>2.81472418385792</v>
       </c>
       <c r="J9">
-        <v>8.762963974446846</v>
+        <v>9.003213536631218</v>
       </c>
       <c r="K9">
-        <v>13.07812855473309</v>
+        <v>12.71507147324638</v>
       </c>
       <c r="L9">
-        <v>10.00726862445982</v>
+        <v>10.98165474571368</v>
       </c>
       <c r="M9">
-        <v>12.80403358380904</v>
+        <v>7.846804816713562</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10.00741454274982</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.79581766205419</v>
       </c>
       <c r="P9">
-        <v>12.03714647525937</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>14.22537268303136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.02212217991932</v>
+      </c>
+      <c r="S9">
+        <v>13.94312162843288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.26315345466494</v>
+        <v>14.95991436365324</v>
       </c>
       <c r="C10">
-        <v>9.748755916932922</v>
+        <v>10.13691184935194</v>
       </c>
       <c r="D10">
-        <v>12.81493562353653</v>
+        <v>12.95193293252987</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.71582788915704</v>
+        <v>23.21240423144154</v>
       </c>
       <c r="G10">
-        <v>22.22798672225569</v>
+        <v>21.68568474417394</v>
       </c>
       <c r="H10">
-        <v>2.269101916033481</v>
+        <v>2.258673735730075</v>
       </c>
       <c r="I10">
-        <v>2.968685574040856</v>
+        <v>2.984577851588754</v>
       </c>
       <c r="J10">
-        <v>8.72202381008128</v>
+        <v>8.802810274086708</v>
       </c>
       <c r="K10">
-        <v>12.91915083242513</v>
+        <v>12.50275112645102</v>
       </c>
       <c r="L10">
-        <v>10.40132166357639</v>
+        <v>10.70137325186027</v>
       </c>
       <c r="M10">
-        <v>13.76999045343568</v>
+        <v>7.912062269467156</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.39477291334427</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.74151802434333</v>
       </c>
       <c r="P10">
-        <v>11.85796808847042</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>14.27635807269149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.87308673874526</v>
+      </c>
+      <c r="S10">
+        <v>13.91185116959331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.59547363457085</v>
+        <v>15.26541605523422</v>
       </c>
       <c r="C11">
-        <v>9.805239075262156</v>
+        <v>10.13543360048508</v>
       </c>
       <c r="D11">
-        <v>11.7756314678917</v>
+        <v>11.94273258709182</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.58376631727632</v>
+        <v>21.97219117552123</v>
       </c>
       <c r="G11">
-        <v>21.33557570196983</v>
+        <v>21.74351006770397</v>
       </c>
       <c r="H11">
-        <v>3.038492068775972</v>
+        <v>3.026808694215763</v>
       </c>
       <c r="I11">
-        <v>3.027724032629591</v>
+        <v>3.036679544225595</v>
       </c>
       <c r="J11">
-        <v>8.53289204901218</v>
+        <v>8.331590202150993</v>
       </c>
       <c r="K11">
-        <v>12.58046078589908</v>
+        <v>12.14387874624845</v>
       </c>
       <c r="L11">
-        <v>9.072636638966518</v>
+        <v>10.40895115428361</v>
       </c>
       <c r="M11">
-        <v>14.00146292752475</v>
+        <v>7.708809418438328</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>9.061748328872628</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.93489928305579</v>
       </c>
       <c r="P11">
-        <v>11.83529213804987</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.8515838708132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.88004530753781</v>
+      </c>
+      <c r="S11">
+        <v>13.41495325001165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.65647407589172</v>
+        <v>15.32612818038035</v>
       </c>
       <c r="C12">
-        <v>9.688926968828678</v>
+        <v>9.966244065088565</v>
       </c>
       <c r="D12">
-        <v>10.73052582698123</v>
+        <v>10.90656026588822</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.49784283146243</v>
+        <v>20.86007268113549</v>
       </c>
       <c r="G12">
-        <v>20.50390838669359</v>
+        <v>21.36201963364066</v>
       </c>
       <c r="H12">
-        <v>4.239298352845752</v>
+        <v>4.230372905244238</v>
       </c>
       <c r="I12">
-        <v>3.035295764041532</v>
+        <v>3.04182295121277</v>
       </c>
       <c r="J12">
-        <v>8.385609075158063</v>
+        <v>8.107275296117724</v>
       </c>
       <c r="K12">
-        <v>12.34508179238419</v>
+        <v>11.9186778844251</v>
       </c>
       <c r="L12">
-        <v>7.94995137114209</v>
+        <v>10.24936003062618</v>
       </c>
       <c r="M12">
-        <v>13.99943773455908</v>
+        <v>7.541141564017412</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.93696216000802</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.91506225787516</v>
       </c>
       <c r="P12">
-        <v>11.85820936891666</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>13.49239708715613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.91935169721898</v>
+      </c>
+      <c r="S12">
+        <v>13.04052685179002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.49676458561169</v>
+        <v>15.19152279995742</v>
       </c>
       <c r="C13">
-        <v>9.463688848852227</v>
+        <v>9.700551217955782</v>
       </c>
       <c r="D13">
-        <v>9.596779437921464</v>
+        <v>9.759593221756107</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.34607338028319</v>
+        <v>19.76546001379766</v>
       </c>
       <c r="G13">
-        <v>19.61727432721781</v>
+        <v>20.37175912388536</v>
       </c>
       <c r="H13">
-        <v>5.534530584928805</v>
+        <v>5.528657671671178</v>
       </c>
       <c r="I13">
-        <v>3.008494490957106</v>
+        <v>3.018055980044176</v>
       </c>
       <c r="J13">
-        <v>8.254815019546898</v>
+        <v>8.057215747026829</v>
       </c>
       <c r="K13">
-        <v>12.15742786379241</v>
+        <v>11.77179064438135</v>
       </c>
       <c r="L13">
-        <v>6.941513587259805</v>
+        <v>10.16316237832217</v>
       </c>
       <c r="M13">
-        <v>13.81887120217064</v>
+        <v>7.387004156806276</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.928824483907602</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.73806820449466</v>
       </c>
       <c r="P13">
-        <v>11.91601143993459</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.14372405501014</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.9794775276793</v>
+      </c>
+      <c r="S13">
+        <v>12.73433339747833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.27945840100757</v>
+        <v>15.00343241371624</v>
       </c>
       <c r="C14">
-        <v>9.261243433250463</v>
+        <v>9.474367074381867</v>
       </c>
       <c r="D14">
-        <v>8.753373122303756</v>
+        <v>8.897221415158736</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.50526828402293</v>
+        <v>18.99945608956726</v>
       </c>
       <c r="G14">
-        <v>18.96333305157608</v>
+        <v>19.40851239974595</v>
       </c>
       <c r="H14">
-        <v>6.47212769661237</v>
+        <v>6.468129808130318</v>
       </c>
       <c r="I14">
-        <v>2.975487679591781</v>
+        <v>2.989939898665492</v>
       </c>
       <c r="J14">
-        <v>8.170185899442927</v>
+        <v>8.085692003396206</v>
       </c>
       <c r="K14">
-        <v>12.04635314246315</v>
+        <v>11.70055396189478</v>
       </c>
       <c r="L14">
-        <v>6.337305205536789</v>
+        <v>10.13019196077865</v>
       </c>
       <c r="M14">
-        <v>13.60981602741409</v>
+        <v>7.285328063309825</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.326234396709629</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.54091219228361</v>
       </c>
       <c r="P14">
-        <v>11.97230160376273</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.90278290512076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.03019292610858</v>
+      </c>
+      <c r="S14">
+        <v>12.54635625679566</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.17354708285702</v>
+        <v>14.90981006047521</v>
       </c>
       <c r="C15">
-        <v>9.19623450206266</v>
+        <v>9.405492500167671</v>
       </c>
       <c r="D15">
-        <v>8.528892274252534</v>
+        <v>8.664164088978389</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.28280748129891</v>
+        <v>18.80958784016781</v>
       </c>
       <c r="G15">
-        <v>18.78514712263118</v>
+        <v>19.05654284642175</v>
       </c>
       <c r="H15">
-        <v>6.686087937918177</v>
+        <v>6.682679469676564</v>
       </c>
       <c r="I15">
-        <v>2.961367631538747</v>
+        <v>2.978673271612454</v>
       </c>
       <c r="J15">
-        <v>8.152197018907339</v>
+        <v>8.120318408011629</v>
       </c>
       <c r="K15">
-        <v>12.0262465772562</v>
+        <v>11.69503647343801</v>
       </c>
       <c r="L15">
-        <v>6.206245964609751</v>
+        <v>10.13270091383355</v>
       </c>
       <c r="M15">
-        <v>13.52000469307235</v>
+        <v>7.261416921121683</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.196231532111823</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.45807309828326</v>
       </c>
       <c r="P15">
-        <v>11.99312949331927</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.84386998172329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.04664637356997</v>
+      </c>
+      <c r="S15">
+        <v>12.51006698042632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.70810138203225</v>
+        <v>14.48970309404939</v>
       </c>
       <c r="C16">
-        <v>8.978448622057234</v>
+        <v>9.196604104060141</v>
       </c>
       <c r="D16">
-        <v>8.376269258252099</v>
+        <v>8.47893600573742</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.19064511545449</v>
+        <v>18.83721556501668</v>
       </c>
       <c r="G16">
-        <v>18.71930033063504</v>
+        <v>18.1993504465919</v>
       </c>
       <c r="H16">
-        <v>6.442176126167753</v>
+        <v>6.443248482956146</v>
       </c>
       <c r="I16">
-        <v>2.888354559966302</v>
+        <v>2.917144053380668</v>
       </c>
       <c r="J16">
-        <v>8.193490714787499</v>
+        <v>8.387673881717104</v>
       </c>
       <c r="K16">
-        <v>12.12668969986771</v>
+        <v>11.83475098249945</v>
       </c>
       <c r="L16">
-        <v>6.201806322779661</v>
+        <v>10.25386534868397</v>
       </c>
       <c r="M16">
-        <v>13.14915736026381</v>
+        <v>7.296048187379796</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.197367659446555</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.1212096114017</v>
       </c>
       <c r="P16">
-        <v>12.05027294373918</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.88409110769227</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.07791371550032</v>
+      </c>
+      <c r="S16">
+        <v>12.63102032631153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.46367004738046</v>
+        <v>14.26121680322696</v>
       </c>
       <c r="C17">
-        <v>8.921551227690367</v>
+        <v>9.152711462511153</v>
       </c>
       <c r="D17">
-        <v>8.724769720424979</v>
+        <v>8.816119077088256</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.57195730004422</v>
+        <v>19.25907961084162</v>
       </c>
       <c r="G17">
-        <v>19.02144858879908</v>
+        <v>18.17040164922463</v>
       </c>
       <c r="H17">
-        <v>5.687074679771439</v>
+        <v>5.687568076373643</v>
       </c>
       <c r="I17">
-        <v>2.849860882721291</v>
+        <v>2.884544859171041</v>
       </c>
       <c r="J17">
-        <v>8.270137246943227</v>
+        <v>8.563514337702495</v>
       </c>
       <c r="K17">
-        <v>12.26181509428733</v>
+        <v>11.97641492895148</v>
       </c>
       <c r="L17">
-        <v>6.499157329312659</v>
+        <v>10.36900941046194</v>
       </c>
       <c r="M17">
-        <v>12.97506584256392</v>
+        <v>7.370118755498989</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.497474434717806</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.96240936410274</v>
       </c>
       <c r="P17">
-        <v>12.06567383995918</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.043209727189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.0797956839003</v>
+      </c>
+      <c r="S17">
+        <v>12.81629678862184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.40028561039533</v>
+        <v>14.19401637699074</v>
       </c>
       <c r="C18">
-        <v>8.982038901939546</v>
+        <v>9.240934487659832</v>
       </c>
       <c r="D18">
-        <v>9.548370815953074</v>
+        <v>9.639331811854046</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.4185456271708</v>
+        <v>20.10447887199482</v>
       </c>
       <c r="G18">
-        <v>19.69050236275089</v>
+        <v>18.68723989853392</v>
       </c>
       <c r="H18">
-        <v>4.455577981644086</v>
+        <v>4.455184696678686</v>
       </c>
       <c r="I18">
-        <v>2.834049259750593</v>
+        <v>2.869672303795241</v>
       </c>
       <c r="J18">
-        <v>8.388271928557057</v>
+        <v>8.717971065873314</v>
       </c>
       <c r="K18">
-        <v>12.4509757396743</v>
+        <v>12.15218137401761</v>
       </c>
       <c r="L18">
-        <v>7.207286070504754</v>
+        <v>10.50414856116443</v>
       </c>
       <c r="M18">
-        <v>12.95619073949637</v>
+        <v>7.494402846519424</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.206517970510151</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.95047565659864</v>
       </c>
       <c r="P18">
-        <v>12.04759578855754</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.32924761263417</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.0538855860272</v>
+      </c>
+      <c r="S18">
+        <v>13.09986556595017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.4657728122136</v>
+        <v>14.24194058817433</v>
       </c>
       <c r="C19">
-        <v>9.176200205109751</v>
+        <v>9.478732396564741</v>
       </c>
       <c r="D19">
-        <v>10.69592304243579</v>
+        <v>10.79283327727324</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.55433050922775</v>
+        <v>21.2140707187528</v>
       </c>
       <c r="G19">
-        <v>20.55478239629248</v>
+        <v>19.48415859658242</v>
       </c>
       <c r="H19">
-        <v>3.103280665196188</v>
+        <v>3.102335160008701</v>
       </c>
       <c r="I19">
-        <v>2.848263149202845</v>
+        <v>2.883266461358932</v>
       </c>
       <c r="J19">
-        <v>8.5238559895986</v>
+        <v>8.855436592439252</v>
       </c>
       <c r="K19">
-        <v>12.65375559464807</v>
+        <v>12.32982663784198</v>
       </c>
       <c r="L19">
-        <v>8.309739910801065</v>
+        <v>10.63614971216869</v>
       </c>
       <c r="M19">
-        <v>13.06600114103339</v>
+        <v>7.637252606920172</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.308622826877931</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.06261473079033</v>
       </c>
       <c r="P19">
-        <v>12.01009329612353</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.6779572530905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.01231767359591</v>
+      </c>
+      <c r="S19">
+        <v>13.42913333339181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.92633999416066</v>
+        <v>14.64943662545227</v>
       </c>
       <c r="C20">
-        <v>9.651895768617623</v>
+        <v>10.03638284723582</v>
       </c>
       <c r="D20">
-        <v>12.63049705691255</v>
+        <v>12.75029375242409</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.48260591636741</v>
+        <v>23.04683315961606</v>
       </c>
       <c r="G20">
-        <v>22.00995467371858</v>
+        <v>21.09981612945772</v>
       </c>
       <c r="H20">
-        <v>2.186021450637428</v>
+        <v>2.179445027512332</v>
       </c>
       <c r="I20">
-        <v>2.929715106952165</v>
+        <v>2.955511167986483</v>
       </c>
       <c r="J20">
-        <v>8.717520870970525</v>
+        <v>8.944323731331265</v>
       </c>
       <c r="K20">
-        <v>12.92221241294801</v>
+        <v>12.53600778444526</v>
       </c>
       <c r="L20">
-        <v>10.2909002730585</v>
+        <v>10.75830036399012</v>
       </c>
       <c r="M20">
-        <v>13.52376086052584</v>
+        <v>7.870914411301573</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.28674958383436</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.51111536324288</v>
       </c>
       <c r="P20">
-        <v>11.90776743226337</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>14.22456977007153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.9133575182465</v>
+      </c>
+      <c r="S20">
+        <v>13.90762190100873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.81747122770105</v>
+        <v>15.44469377686914</v>
       </c>
       <c r="C21">
-        <v>10.15592146464797</v>
+        <v>10.52869753834408</v>
       </c>
       <c r="D21">
-        <v>13.41771989256666</v>
+        <v>13.61098937721316</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.26677342280567</v>
+        <v>23.54458408019453</v>
       </c>
       <c r="G21">
-        <v>22.60483130665959</v>
+        <v>23.40086743160711</v>
       </c>
       <c r="H21">
-        <v>2.442852135356541</v>
+        <v>2.422761877871804</v>
       </c>
       <c r="I21">
-        <v>3.076771440230098</v>
+        <v>3.080353323876874</v>
       </c>
       <c r="J21">
-        <v>8.722947717525654</v>
+        <v>8.3341020722624</v>
       </c>
       <c r="K21">
-        <v>12.85926877674546</v>
+        <v>12.35082615672945</v>
       </c>
       <c r="L21">
-        <v>10.85937315276473</v>
+        <v>10.53765088054922</v>
       </c>
       <c r="M21">
-        <v>14.26510754695125</v>
+        <v>7.918125814660075</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.84711157956792</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.18359040628924</v>
       </c>
       <c r="P21">
-        <v>11.76440099487161</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14.35798837460967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.80647978859119</v>
+      </c>
+      <c r="S21">
+        <v>13.83817427317168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.37788237291288</v>
+        <v>15.94422113025655</v>
       </c>
       <c r="C22">
-        <v>10.43450957791791</v>
+        <v>10.78986234013296</v>
       </c>
       <c r="D22">
-        <v>13.82935266695641</v>
+        <v>14.07216110992084</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.71146660627702</v>
+        <v>23.7921614269146</v>
       </c>
       <c r="G22">
-        <v>22.96845254881052</v>
+        <v>25.00509093692951</v>
       </c>
       <c r="H22">
-        <v>2.598296196074408</v>
+        <v>2.569693358727766</v>
       </c>
       <c r="I22">
-        <v>3.165297139592417</v>
+        <v>3.153589575483125</v>
       </c>
       <c r="J22">
-        <v>8.724977843905013</v>
+        <v>7.972866431273045</v>
       </c>
       <c r="K22">
-        <v>12.82216254029371</v>
+        <v>12.22657576432822</v>
       </c>
       <c r="L22">
-        <v>11.12963896189098</v>
+        <v>10.39634885008917</v>
       </c>
       <c r="M22">
-        <v>14.71845611230517</v>
+        <v>7.95573997449597</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.11242111520268</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.59009264185573</v>
       </c>
       <c r="P22">
-        <v>11.67365044593998</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>14.43895751198102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.74231798930492</v>
+      </c>
+      <c r="S22">
+        <v>13.77533497219437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.09467110500583</v>
+        <v>15.69831843135445</v>
       </c>
       <c r="C23">
-        <v>10.26180066508513</v>
+        <v>10.63756061026758</v>
       </c>
       <c r="D23">
-        <v>13.60642689900269</v>
+        <v>13.81592652103594</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.4918544483198</v>
+        <v>23.70354279759237</v>
       </c>
       <c r="G23">
-        <v>22.80432927336158</v>
+        <v>23.97683245844102</v>
       </c>
       <c r="H23">
-        <v>2.516103272292011</v>
+        <v>2.492618672706466</v>
       </c>
       <c r="I23">
-        <v>3.114127713434763</v>
+        <v>3.109865895200859</v>
       </c>
       <c r="J23">
-        <v>8.728753086770064</v>
+        <v>8.216588269455867</v>
       </c>
       <c r="K23">
-        <v>12.85534036121651</v>
+        <v>12.31559722823335</v>
       </c>
       <c r="L23">
-        <v>10.98645255393552</v>
+        <v>10.48514367696264</v>
       </c>
       <c r="M23">
-        <v>14.4777567781286</v>
+        <v>7.956370237529524</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.97221228481881</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.38157028085156</v>
       </c>
       <c r="P23">
-        <v>11.72058022799935</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>14.40810423661716</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.77236238307717</v>
+      </c>
+      <c r="S23">
+        <v>13.83976332211118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.94754748016875</v>
+        <v>14.66956493893892</v>
       </c>
       <c r="C24">
-        <v>9.62768378357864</v>
+        <v>10.01451382569892</v>
       </c>
       <c r="D24">
-        <v>12.73817503405253</v>
+        <v>12.85799117954006</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.62843839545195</v>
+        <v>23.19182095682843</v>
       </c>
       <c r="G24">
-        <v>22.1474920065662</v>
+        <v>21.22103137453924</v>
       </c>
       <c r="H24">
-        <v>2.196571727990368</v>
+        <v>2.189958074745264</v>
       </c>
       <c r="I24">
-        <v>2.923286416805698</v>
+        <v>2.946924872959393</v>
       </c>
       <c r="J24">
-        <v>8.740461838807997</v>
+        <v>8.970823067953351</v>
       </c>
       <c r="K24">
-        <v>12.96737236808548</v>
+        <v>12.57789709799793</v>
       </c>
       <c r="L24">
-        <v>10.42641768648781</v>
+        <v>10.78916772614961</v>
       </c>
       <c r="M24">
-        <v>13.52804470172308</v>
+        <v>7.904382231637018</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.42228451214054</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.51602627018404</v>
       </c>
       <c r="P24">
-        <v>11.90392718187104</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>14.28223974833249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.90807434910627</v>
+      </c>
+      <c r="S24">
+        <v>13.96414650746694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.59615195086056</v>
+        <v>13.39652778514727</v>
       </c>
       <c r="C25">
-        <v>8.901808670522609</v>
+        <v>9.153518757918871</v>
       </c>
       <c r="D25">
-        <v>11.73593867087486</v>
+        <v>11.83396934171436</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.69355418779455</v>
+        <v>22.35196721229851</v>
       </c>
       <c r="G25">
-        <v>21.47084952247377</v>
+        <v>20.4760769865263</v>
       </c>
       <c r="H25">
-        <v>1.835204213732292</v>
+        <v>1.839382637511253</v>
       </c>
       <c r="I25">
-        <v>2.710947289978651</v>
+        <v>2.757494577114506</v>
       </c>
       <c r="J25">
-        <v>8.76482625027503</v>
+        <v>9.044357619144726</v>
       </c>
       <c r="K25">
-        <v>13.10631102097564</v>
+        <v>12.76173922411581</v>
       </c>
       <c r="L25">
-        <v>9.786684849395686</v>
+        <v>11.06362028260907</v>
       </c>
       <c r="M25">
-        <v>12.42099467650038</v>
+        <v>7.810706204200457</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.789397535835404</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.4185496053487</v>
       </c>
       <c r="P25">
-        <v>12.10867210580104</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>14.17110747647026</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.08424533156456</v>
+      </c>
+      <c r="S25">
+        <v>13.9150111934226</v>
       </c>
     </row>
   </sheetData>
